--- a/FB/Prodrome/Prodrome EEG summary.xlsx
+++ b/FB/Prodrome/Prodrome EEG summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="660" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EEG Summaries" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="322">
   <si>
     <t>Full text (Y/N)</t>
   </si>
@@ -546,9 +546,6 @@
     <t>Lempel-Ziv complexity</t>
   </si>
   <si>
-    <t>Combination of serveral univariate (single channel) EEG features</t>
-  </si>
-  <si>
     <t>Cross-frequency coupling between theta oscillations (4 - 8Hz) and slow waves (0.5Hz - 3Hz), and gamma oscillations (40Hz - 120Hz)</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
     <t>CLINICAL STUDY - patients undergoing EEG monitoring report prodromes</t>
   </si>
   <si>
-    <t>CLINICAL STUDY - Feasability study of long-term seizure advisory system</t>
-  </si>
-  <si>
     <t>REVIEW - evidence that high discriminality between preictal and interictal intracranial EEGs may be due to time between recordings</t>
   </si>
   <si>
@@ -749,12 +743,6 @@
   </si>
   <si>
     <t>Succesful detection of preictal state in 10/12 seizures at very high specificity</t>
-  </si>
-  <si>
-    <t>Decrease in synchronization prior to 26 out of 32 analysed seizures at very high specificity +
- Duration of preictal state ranges from several minutes to a few hours
-Ictogenesis not confined to seizure focus but may involve distant, even contralaterial brain areas
-Intrahemispheric asymmetry in spatial dynamics of preictal desynchronization in majority seizures</t>
   </si>
   <si>
     <t>117h</t>
@@ -910,11 +898,6 @@
     <t>There is a distinction between the application of seizure detection and seizure prediction algorithms. Algorithms focused on seizure detection are used in the initial diagnosis of epilepsy or to explore the electrodynamic features of seizure generation (ictogenesis) and onset as well as of the ictal period itself. There is a clear reduced requirement for these algorithms to perform classifications over a short time-scale compared to seizure prediction algorithms which might find application in clincial intervention or warning systems.</t>
   </si>
   <si>
-    <t>The Freiburg EEG database (FSPEEG) contains 6-channel (3 for SOZ, 3 outside SOZ) EEG recordings for 21 patients. Channel locations differ between patients.
-For each patient there are 3 or four "ictal" files holding EEG data surrounding and during single ictal events totalling 1 hour of continous recording per event. Preictal periods are taken from 300 seconds prior to seizure onset. Postictal period is taken as commencing 300 seconds after an ictal section.
-The remainder of the EEG recordings are considered interictal and are often not used in training and testing prediction algorithms.</t>
-  </si>
-  <si>
     <t>Advance Seizure Prediction via Pre-Ictal + Relabelling (ASPPR) algorithm selected recognized patterns in EEG data to develop predictive models. 
 Patterns are patient specific, based on predictive significance, and drawn from the range of EEG features analysed.</t>
   </si>
@@ -930,10 +913,6 @@
     <t>&gt; 88.95</t>
   </si>
   <si>
-    <t>Statistics calculated for 21 time-in-advance predictive models (from t=0 to t=20 min) +
-Accuracy, specificity and sensitivity performance ranged between [97.41%, [97.88%], [99.36%, 99.67%] and [88.95%, 93.47%] respectively</t>
-  </si>
-  <si>
     <t>Mula, M (2012) states preictal psychiatric symptoms are "not characterized by any detectable surface EEG change, though probably represent the expression of underlying epileptic activity."</t>
   </si>
   <si>
@@ -1033,14 +1012,114 @@
     <t>REVIEW - functional connectivity patterns and neural networks in seizure prediction and localization of seizure onset zones</t>
   </si>
   <si>
-    <t>EEG papers collected so far are mix of quasi-prospective (based on EEG data from databases (Freiberg etc) with separate training and testing data sets), a small number of simultaneous EEG monitoring and feature analysis and reviews. Most algorithm analysis is conducted in quasi-prospective studies on small data sets.</t>
+    <t>Combination of several univariate (single channel) EEG features</t>
+  </si>
+  <si>
+    <t>SPH = Seizure Prediction Horizon (interval between seizure warning being raised and start of SOP. The seizure is not expected to occur during the SPH)</t>
+  </si>
+  <si>
+    <t>Statistics calculated for 21 time-in-advance predictive models (from t=0 to t=20 min) +
+Accuracy, specificity and sensitivity performance ranged between [97.41%, 97.88%], [99.36%, 99.67%] and [88.95%, 93.47%] respectively</t>
+  </si>
+  <si>
+    <t>Decrease in synchronization prior to 26 out of 32 analysed seizures at very high specificity +
+Duration of preictal state ranges from several minutes to a few hours
+Ictogenesis not confined to seizure focus but may involve distant, even contralaterial brain areas
+Intrahemispheric asymmetry in spatial dynamics of preictal desynchronization in majority seizures</t>
+  </si>
+  <si>
+    <t>CLINICAL STUDY - Feasibility study of long-term seizure advisory system</t>
+  </si>
+  <si>
+    <t>Author(s)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Mean Phase Coherence</t>
+  </si>
+  <si>
+    <t>High Speed Oscillations</t>
+  </si>
+  <si>
+    <t>Short Term Max Lyupanov</t>
+  </si>
+  <si>
+    <t>SPH</t>
+  </si>
+  <si>
+    <t>SOP</t>
+  </si>
+  <si>
+    <t>Lempel-Ziv Complexity</t>
+  </si>
+  <si>
+    <t>The Freiburg EEG database (FSPEEG) contains 6-channel (3 for SOZ, 3 outside SOZ) EEG recordings for 21 patients. Channel locations differ between patients.
+For each patient there are 3 or four "ictal" files holding EEG data surrounding and during single ictal events totalling 1 hour of continous recording per event. Preictal periods are taken as extending from 300 seconds prior to seizure onset. Postictal period is taken as commencing 300 seconds after an ictal section.
+The remainder of the EEG recordings are considered interictal and are often not used in training and testing prediction algorithms.</t>
+  </si>
+  <si>
+    <t>EEG papers collected so far are mix of quasi-prospective (based on EEG data from databases (Freiberg etc) with separate training and testing data sets), a small number of simultaneous EEG monitoring and feature analysis studies and literature reviews. Most algorithm analysis to date is conducted in quasi-prospective studies on small data sets with short EEG monitoring periods. An increase in the availability and extent of long-duration EEG records (esp iEEG) for large numbers of patients is hoped might increase performance of seizure detection/prediction algorithms.</t>
+  </si>
+  <si>
+    <t>Seizures and EEG changes in seizure onset are individualized between patients and often between seizures in the same patient. Many approaches now individualize algorithms to each patient and the EEG features for that patient that are most strongly indicated as seizure precursors.</t>
+  </si>
+  <si>
+    <t>More success is reported for multiple EEG features in combination than single EEG features in isolation.</t>
+  </si>
+  <si>
+    <t>The more complex the EEG analysis algorithm, the higher the computing cost, with implications in seizure warning/intervention devices for computation and pre-warning time and power requirements of the device.</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>SOP = Seizure Occurrence Period (interval within which seizure is expected to occur)</t>
+  </si>
+  <si>
+    <t>Seizure Prediction Horizon (SPH), Seizure Occurrence Period (SOP) and time-to-seizure (mean Miniumum Prediction Time | MPT) intervals observed for different measures of preictal EEG phenomena</t>
+  </si>
+  <si>
+    <t>MPT</t>
+  </si>
+  <si>
+    <t>Correlation Dimension</t>
+  </si>
+  <si>
+    <t>Noise Level</t>
+  </si>
+  <si>
+    <t>Correlation Entropy</t>
+  </si>
+  <si>
+    <t>Nonlinear Interdependence</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>Full Text Y/N</t>
+  </si>
+  <si>
+    <t>Paper Type</t>
+  </si>
+  <si>
+    <t>Paper Details</t>
+  </si>
+  <si>
+    <t>Mean Absolute Deviation (MAD) &amp; Interquartile Range (IQR)</t>
+  </si>
+  <si>
+    <t>Combined 
+features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1056,8 +1135,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1B4C88"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1130,8 +1230,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7FAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBE2FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1EAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3DBEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="85">
+  <borders count="155">
     <border>
       <left/>
       <right/>
@@ -2287,11 +2423,929 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF52920A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF52920A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF52920A"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF52920A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6284A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6284A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6284A5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6284A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1B4C88"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF1B4C88"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1B4C88"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B4C88"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2478,6 +3532,145 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="133" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="131" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="140" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="139" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="143" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="149" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="150" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2670,7 +3863,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2696,6 +3889,159 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="147" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="151" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2705,16 +4051,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
-      <color rgb="FF9BB7FF"/>
-      <color rgb="FFDBDDFF"/>
-      <color rgb="FFEBFAFF"/>
-      <color rgb="FFF2FBFF"/>
-      <color rgb="FF4BEAEC"/>
-      <color rgb="FFF7FEFF"/>
-      <color rgb="FFDBFDC8"/>
+      <color rgb="FFC3DBEF"/>
+      <color rgb="FF6284A5"/>
+      <color rgb="FF6BD5FF"/>
+      <color rgb="FF42D4ED"/>
+      <color rgb="FFD1EAFF"/>
+      <color rgb="FF597AB4"/>
       <color rgb="FFDCEEFF"/>
-      <color rgb="FF8EE6E1"/>
-      <color rgb="FFDCFFFD"/>
+      <color rgb="FFCBE2FC"/>
+      <color rgb="FFC4DAF3"/>
+      <color rgb="FFC2D3F3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2990,7 +4336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV110"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3009,451 +4355,451 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="117" t="s">
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="97" t="s">
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="94"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="148"/>
+      <c r="AO2" s="148"/>
+      <c r="AP2" s="148"/>
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="149"/>
+      <c r="AV2" s="145"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="134" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="157"/>
-      <c r="T3" s="133" t="s">
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="134"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="129" t="s">
+      <c r="U3" s="185"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="180" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="131" t="s">
+      <c r="X3" s="180"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="182" t="s">
         <v>132</v>
       </c>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="111" t="s">
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="AJ3" s="112"/>
-      <c r="AK3" s="113" t="s">
+      <c r="AJ3" s="163"/>
+      <c r="AK3" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="111"/>
-      <c r="AO3" s="111"/>
-      <c r="AP3" s="111"/>
-      <c r="AQ3" s="111"/>
-      <c r="AR3" s="111"/>
-      <c r="AS3" s="114"/>
-      <c r="AT3" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="94"/>
+      <c r="AL3" s="162"/>
+      <c r="AM3" s="162"/>
+      <c r="AN3" s="162"/>
+      <c r="AO3" s="162"/>
+      <c r="AP3" s="162"/>
+      <c r="AQ3" s="162"/>
+      <c r="AR3" s="162"/>
+      <c r="AS3" s="165"/>
+      <c r="AT3" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU3" s="151"/>
+      <c r="AV3" s="145"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="148" t="s">
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="148"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="147" t="s">
+      <c r="L4" s="199"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="136" t="s">
+      <c r="O4" s="199"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="139" t="s">
+      <c r="U4" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="V4" s="142" t="s">
+      <c r="V4" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="W4" s="121" t="s">
+      <c r="W4" s="172" t="s">
         <v>128</v>
       </c>
-      <c r="X4" s="121" t="s">
+      <c r="X4" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="Y4" s="123" t="s">
+      <c r="Y4" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="Z4" s="125" t="s">
+      <c r="Z4" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="AA4" s="127" t="s">
+      <c r="AA4" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="127" t="s">
+      <c r="AB4" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="AC4" s="95" t="s">
+      <c r="AC4" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="AD4" s="95" t="s">
+      <c r="AD4" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="AE4" s="95" t="s">
+      <c r="AE4" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="AF4" s="95" t="s">
+      <c r="AF4" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="107" t="s">
+      <c r="AG4" s="139"/>
+      <c r="AH4" s="140"/>
+      <c r="AI4" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="AJ4" s="103" t="s">
+      <c r="AJ4" s="154" t="s">
         <v>139</v>
       </c>
-      <c r="AK4" s="105" t="s">
+      <c r="AK4" s="156" t="s">
         <v>142</v>
       </c>
-      <c r="AL4" s="107" t="s">
+      <c r="AL4" s="158" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM4" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN4" s="156" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO4" s="158" t="s">
         <v>176</v>
       </c>
-      <c r="AM4" s="109" t="s">
+      <c r="AP4" s="160" t="s">
         <v>179</v>
       </c>
-      <c r="AN4" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO4" s="107" t="s">
+      <c r="AQ4" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR4" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="AP4" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ4" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR4" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS4" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT4" s="101" t="s">
+      <c r="AS4" s="160" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT4" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="AU4" s="103" t="s">
+      <c r="AU4" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="AV4" s="94"/>
+      <c r="AV4" s="145"/>
     </row>
     <row r="5" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="153" t="s">
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="150" t="s">
+      <c r="I5" s="143"/>
+      <c r="J5" s="201" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="140" t="s">
+      <c r="K5" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="140" t="s">
+      <c r="L5" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="158" t="s">
+      <c r="M5" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="137" t="s">
+      <c r="N5" s="188" t="s">
         <v>117</v>
       </c>
-      <c r="O5" s="140" t="s">
+      <c r="O5" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="140" t="s">
+      <c r="P5" s="191" t="s">
         <v>119</v>
       </c>
-      <c r="Q5" s="140" t="s">
+      <c r="Q5" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="R5" s="140" t="s">
+      <c r="R5" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="S5" s="145" t="s">
+      <c r="S5" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="T5" s="137"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="143"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="109"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="101"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="101"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="94"/>
+      <c r="T5" s="188"/>
+      <c r="U5" s="191"/>
+      <c r="V5" s="194"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="178"/>
+      <c r="AB5" s="178"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="154"/>
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="158"/>
+      <c r="AM5" s="160"/>
+      <c r="AN5" s="156"/>
+      <c r="AO5" s="158"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="152"/>
+      <c r="AR5" s="158"/>
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="152"/>
+      <c r="AU5" s="154"/>
+      <c r="AV5" s="145"/>
     </row>
     <row r="6" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="152"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140"/>
-      <c r="R6" s="140"/>
-      <c r="S6" s="145"/>
-      <c r="T6" s="137"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="143"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="107"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="107"/>
-      <c r="AM6" s="109"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="107"/>
-      <c r="AP6" s="109"/>
-      <c r="AQ6" s="101"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="109"/>
-      <c r="AT6" s="101"/>
-      <c r="AU6" s="103"/>
-      <c r="AV6" s="94"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="172"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="176"/>
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="178"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="139"/>
+      <c r="AH6" s="140"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="154"/>
+      <c r="AK6" s="156"/>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="160"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="158"/>
+      <c r="AP6" s="160"/>
+      <c r="AQ6" s="152"/>
+      <c r="AR6" s="158"/>
+      <c r="AS6" s="160"/>
+      <c r="AT6" s="152"/>
+      <c r="AU6" s="154"/>
+      <c r="AV6" s="145"/>
     </row>
     <row r="7" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="152"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140"/>
-      <c r="R7" s="140"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="140"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="109"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="101"/>
-      <c r="AU7" s="103"/>
-      <c r="AV7" s="94"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="191"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="196"/>
+      <c r="T7" s="188"/>
+      <c r="U7" s="191"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="176"/>
+      <c r="AA7" s="178"/>
+      <c r="AB7" s="178"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="154"/>
+      <c r="AK7" s="156"/>
+      <c r="AL7" s="158"/>
+      <c r="AM7" s="160"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="158"/>
+      <c r="AP7" s="160"/>
+      <c r="AQ7" s="152"/>
+      <c r="AR7" s="158"/>
+      <c r="AS7" s="160"/>
+      <c r="AT7" s="152"/>
+      <c r="AU7" s="154"/>
+      <c r="AV7" s="145"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A8" s="152"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="107"/>
-      <c r="AM8" s="109"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="107"/>
-      <c r="AP8" s="109"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="109"/>
-      <c r="AT8" s="101"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="94"/>
+      <c r="A8" s="203"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="191"/>
+      <c r="R8" s="191"/>
+      <c r="S8" s="196"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="191"/>
+      <c r="V8" s="194"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="146"/>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="146"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="154"/>
+      <c r="AK8" s="156"/>
+      <c r="AL8" s="158"/>
+      <c r="AM8" s="160"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="158"/>
+      <c r="AP8" s="160"/>
+      <c r="AQ8" s="152"/>
+      <c r="AR8" s="158"/>
+      <c r="AS8" s="160"/>
+      <c r="AT8" s="152"/>
+      <c r="AU8" s="154"/>
+      <c r="AV8" s="145"/>
     </row>
     <row r="9" spans="1:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
@@ -3466,56 +4812,56 @@
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="154"/>
-      <c r="G9" s="156"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="207"/>
       <c r="H9" s="19" t="s">
         <v>105</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="151"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="96"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="192"/>
+      <c r="R9" s="192"/>
+      <c r="S9" s="197"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="192"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="147"/>
+      <c r="AF9" s="147"/>
       <c r="AG9" s="55" t="s">
         <v>137</v>
       </c>
       <c r="AH9" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="104"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="108"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="108"/>
-      <c r="AP9" s="110"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="108"/>
-      <c r="AS9" s="110"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="104"/>
+      <c r="AI9" s="159"/>
+      <c r="AJ9" s="155"/>
+      <c r="AK9" s="157"/>
+      <c r="AL9" s="159"/>
+      <c r="AM9" s="161"/>
+      <c r="AN9" s="157"/>
+      <c r="AO9" s="159"/>
+      <c r="AP9" s="161"/>
+      <c r="AQ9" s="153"/>
+      <c r="AR9" s="159"/>
+      <c r="AS9" s="161"/>
+      <c r="AT9" s="153"/>
+      <c r="AU9" s="155"/>
       <c r="AV9" s="20" t="s">
         <v>148</v>
       </c>
@@ -3570,7 +4916,7 @@
       </c>
       <c r="AH10" s="58"/>
       <c r="AI10" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AJ10" s="65">
         <v>49</v>
@@ -3644,7 +4990,7 @@
       <c r="AE11" s="15"/>
       <c r="AF11" s="44"/>
       <c r="AG11" s="59" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="AH11" s="60"/>
       <c r="AI11" s="69"/>
@@ -3652,7 +4998,7 @@
       <c r="AK11" s="71"/>
       <c r="AL11" s="69"/>
       <c r="AM11" s="72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN11" s="71"/>
       <c r="AO11" s="69"/>
@@ -3663,7 +5009,7 @@
       <c r="AT11" s="75"/>
       <c r="AU11" s="70"/>
       <c r="AV11" s="76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3769,10 +5115,10 @@
       <c r="AF13" s="44"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI13" s="69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AJ13" s="70">
         <v>558</v>
@@ -3793,7 +5139,7 @@
       <c r="AT13" s="75"/>
       <c r="AU13" s="70"/>
       <c r="AV13" s="76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3861,7 +5207,7 @@
       <c r="AT14" s="73"/>
       <c r="AU14" s="70"/>
       <c r="AV14" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3921,7 +5267,7 @@
       <c r="AT15" s="73"/>
       <c r="AU15" s="70"/>
       <c r="AV15" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3987,7 +5333,7 @@
       <c r="AT16" s="73"/>
       <c r="AU16" s="70"/>
       <c r="AV16" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4033,10 +5379,10 @@
       <c r="AF17" s="44"/>
       <c r="AG17" s="59"/>
       <c r="AH17" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AI17" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AJ17" s="70">
         <v>183</v>
@@ -4057,7 +5403,7 @@
       <c r="AT17" s="75"/>
       <c r="AU17" s="70"/>
       <c r="AV17" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4106,7 +5452,7 @@
       <c r="AE18" s="15"/>
       <c r="AF18" s="52"/>
       <c r="AG18" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AH18" s="60"/>
       <c r="AI18" s="69"/>
@@ -4116,7 +5462,7 @@
         <v>100</v>
       </c>
       <c r="AM18" s="72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN18" s="71"/>
       <c r="AO18" s="69"/>
@@ -4127,7 +5473,7 @@
       <c r="AT18" s="75"/>
       <c r="AU18" s="70"/>
       <c r="AV18" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4245,7 +5591,7 @@
       <c r="AT20" s="73"/>
       <c r="AU20" s="70"/>
       <c r="AV20" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4307,7 +5653,7 @@
       <c r="AT21" s="73"/>
       <c r="AU21" s="70"/>
       <c r="AV21" s="16" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,7 +5715,7 @@
       <c r="AT22" s="73"/>
       <c r="AU22" s="70"/>
       <c r="AV22" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4476,11 +5822,11 @@
       <c r="AE24" s="15"/>
       <c r="AF24" s="52"/>
       <c r="AG24" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH24" s="60"/>
       <c r="AI24" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AJ24" s="70">
         <v>87</v>
@@ -4501,7 +5847,7 @@
       <c r="AT24" s="75"/>
       <c r="AU24" s="70"/>
       <c r="AV24" s="76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4553,7 +5899,7 @@
       <c r="AH25" s="60"/>
       <c r="AI25" s="69"/>
       <c r="AJ25" s="77" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AK25" s="71"/>
       <c r="AL25" s="69"/>
@@ -4567,7 +5913,7 @@
       <c r="AT25" s="73"/>
       <c r="AU25" s="70"/>
       <c r="AV25" s="76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4616,11 +5962,11 @@
       <c r="AE26" s="15"/>
       <c r="AF26" s="52"/>
       <c r="AG26" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH26" s="60"/>
       <c r="AI26" s="69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AJ26" s="70">
         <v>153</v>
@@ -4643,7 +5989,7 @@
       <c r="AT26" s="75"/>
       <c r="AU26" s="70"/>
       <c r="AV26" s="76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4692,7 +6038,7 @@
       <c r="AE27" s="15"/>
       <c r="AF27" s="52"/>
       <c r="AG27" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AH27" s="60"/>
       <c r="AI27" s="69"/>
@@ -4711,17 +6057,17 @@
       <c r="AT27" s="73"/>
       <c r="AU27" s="70"/>
       <c r="AV27" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E28" s="4">
         <v>2015</v>
@@ -4756,25 +6102,25 @@
       <c r="AE28" s="63"/>
       <c r="AF28" s="52"/>
       <c r="AG28" s="59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AH28" s="60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AI28" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ28" s="70">
         <v>175</v>
       </c>
       <c r="AK28" s="71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AL28" s="69">
         <v>80.5</v>
       </c>
       <c r="AM28" s="83" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AN28" s="71"/>
       <c r="AO28" s="69"/>
@@ -4785,7 +6131,7 @@
       <c r="AT28" s="75"/>
       <c r="AU28" s="75"/>
       <c r="AV28" s="76" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4834,10 +6180,10 @@
       <c r="AG29" s="59"/>
       <c r="AH29" s="60"/>
       <c r="AI29" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AJ29" s="77" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AK29" s="71"/>
       <c r="AL29" s="69"/>
@@ -4851,7 +6197,7 @@
       <c r="AT29" s="73"/>
       <c r="AU29" s="70"/>
       <c r="AV29" s="76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4900,17 +6246,17 @@
       <c r="AG30" s="59"/>
       <c r="AH30" s="60"/>
       <c r="AI30" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ30" s="70">
         <v>175</v>
       </c>
       <c r="AK30" s="71"/>
       <c r="AL30" s="69" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM30" s="72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AN30" s="71"/>
       <c r="AO30" s="69"/>
@@ -4921,7 +6267,7 @@
       <c r="AT30" s="75"/>
       <c r="AU30" s="70"/>
       <c r="AV30" s="76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5039,17 +6385,17 @@
       <c r="AT32" s="73"/>
       <c r="AU32" s="70"/>
       <c r="AV32" s="76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E33" s="4">
         <v>2009</v>
@@ -5090,13 +6436,13 @@
       <c r="AG33" s="59"/>
       <c r="AH33" s="60"/>
       <c r="AI33" s="69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AJ33" s="70">
         <v>47</v>
       </c>
       <c r="AK33" s="71" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AL33" s="69"/>
       <c r="AM33" s="72"/>
@@ -5109,7 +6455,7 @@
       <c r="AT33" s="73"/>
       <c r="AU33" s="70"/>
       <c r="AV33" s="76" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5156,7 +6502,7 @@
       <c r="AE34" s="15"/>
       <c r="AF34" s="52"/>
       <c r="AG34" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AH34" s="60"/>
       <c r="AI34" s="69"/>
@@ -5173,7 +6519,7 @@
       <c r="AT34" s="73"/>
       <c r="AU34" s="70"/>
       <c r="AV34" s="76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5220,7 +6566,7 @@
       <c r="AE35" s="15"/>
       <c r="AF35" s="52"/>
       <c r="AG35" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AH35" s="60"/>
       <c r="AI35" s="69"/>
@@ -5237,7 +6583,7 @@
       <c r="AT35" s="73"/>
       <c r="AU35" s="70"/>
       <c r="AV35" s="76" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5342,11 +6688,11 @@
       <c r="AE37" s="15"/>
       <c r="AF37" s="52"/>
       <c r="AG37" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AH37" s="60"/>
       <c r="AI37" s="69" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AJ37" s="70">
         <v>100</v>
@@ -5363,17 +6709,17 @@
       <c r="AT37" s="73"/>
       <c r="AU37" s="70"/>
       <c r="AV37" s="76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E38" s="4">
         <v>2013</v>
@@ -5406,10 +6752,10 @@
       <c r="AE38" s="15"/>
       <c r="AF38" s="52"/>
       <c r="AG38" s="59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AH38" s="60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AI38" s="69"/>
       <c r="AJ38" s="70"/>
@@ -5418,7 +6764,7 @@
         <v>95.67</v>
       </c>
       <c r="AM38" s="72" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AN38" s="71"/>
       <c r="AO38" s="69"/>
@@ -5429,7 +6775,7 @@
       <c r="AT38" s="73"/>
       <c r="AU38" s="70"/>
       <c r="AV38" s="76" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5478,7 +6824,7 @@
       <c r="AE39" s="15"/>
       <c r="AF39" s="52"/>
       <c r="AG39" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH39" s="60"/>
       <c r="AI39" s="69"/>
@@ -5495,17 +6841,17 @@
       <c r="AT39" s="73"/>
       <c r="AU39" s="70"/>
       <c r="AV39" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40"/>
       <c r="C40" s="79" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E40" s="80">
         <v>2014</v>
@@ -5542,21 +6888,21 @@
       <c r="AE40" s="15"/>
       <c r="AF40" s="52"/>
       <c r="AG40" s="59" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AH40" s="60" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AI40" s="69"/>
       <c r="AJ40" s="70"/>
       <c r="AK40" s="71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AL40" s="85" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AM40" s="86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AN40" s="71"/>
       <c r="AO40" s="69"/>
@@ -5567,7 +6913,7 @@
       <c r="AT40" s="73"/>
       <c r="AU40" s="75"/>
       <c r="AV40" s="76" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5614,7 +6960,7 @@
       <c r="AE41" s="15"/>
       <c r="AF41" s="52"/>
       <c r="AG41" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AH41" s="60"/>
       <c r="AI41" s="69"/>
@@ -5631,7 +6977,7 @@
       <c r="AT41" s="73"/>
       <c r="AU41" s="70"/>
       <c r="AV41" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5678,11 +7024,11 @@
       <c r="AE42" s="15"/>
       <c r="AF42" s="52"/>
       <c r="AG42" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AH42" s="60"/>
       <c r="AI42" s="69" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AJ42" s="70">
         <v>32</v>
@@ -5699,7 +7045,7 @@
       <c r="AT42" s="73"/>
       <c r="AU42" s="70"/>
       <c r="AV42" s="76" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5747,7 +7093,7 @@
       <c r="AF43" s="44"/>
       <c r="AG43" s="59"/>
       <c r="AH43" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI43" s="69"/>
       <c r="AJ43" s="70"/>
@@ -5763,19 +7109,19 @@
       <c r="AT43" s="73"/>
       <c r="AU43" s="70"/>
       <c r="AV43" s="76" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E44" s="4">
         <v>2015</v>
@@ -5823,7 +7169,7 @@
       <c r="AT44" s="73"/>
       <c r="AU44" s="70"/>
       <c r="AV44" s="76" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5885,7 +7231,7 @@
       <c r="AT45" s="73"/>
       <c r="AU45" s="70"/>
       <c r="AV45" s="76" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,10 +7354,10 @@
       <c r="A48" s="2"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E48" s="4">
         <v>2011</v>
@@ -6048,13 +7394,13 @@
       <c r="AE48" s="15"/>
       <c r="AF48" s="44"/>
       <c r="AG48" s="59" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AH48" s="60" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AI48" s="69" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AJ48" s="70">
         <v>80</v>
@@ -6064,14 +7410,14 @@
         <v>97.5</v>
       </c>
       <c r="AM48" s="87" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AN48" s="71"/>
       <c r="AO48" s="69">
         <v>92.5</v>
       </c>
       <c r="AP48" s="87" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AQ48" s="73"/>
       <c r="AR48" s="69"/>
@@ -6079,7 +7425,7 @@
       <c r="AT48" s="75"/>
       <c r="AU48" s="75"/>
       <c r="AV48" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6197,17 +7543,17 @@
       <c r="AT50" s="73"/>
       <c r="AU50" s="70"/>
       <c r="AV50" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E51" s="4">
         <v>2013</v>
@@ -6242,17 +7588,17 @@
       <c r="AE51" s="15"/>
       <c r="AF51" s="52"/>
       <c r="AG51" s="59" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AH51" s="60"/>
       <c r="AI51" s="69" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AJ51" s="70">
         <v>46</v>
       </c>
       <c r="AK51" s="71" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AL51" s="69">
         <v>73.900000000000006</v>
@@ -6269,7 +7615,7 @@
       <c r="AT51" s="75"/>
       <c r="AU51" s="70"/>
       <c r="AV51" s="76" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6387,7 +7733,7 @@
       <c r="AT53" s="73"/>
       <c r="AU53" s="70"/>
       <c r="AV53" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6434,7 +7780,7 @@
       <c r="AE54" s="15"/>
       <c r="AF54" s="52"/>
       <c r="AG54" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH54" s="60"/>
       <c r="AI54" s="69"/>
@@ -6451,7 +7797,7 @@
       <c r="AT54" s="73"/>
       <c r="AU54" s="70"/>
       <c r="AV54" s="76" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6511,7 +7857,7 @@
       <c r="AT55" s="73"/>
       <c r="AU55" s="70"/>
       <c r="AV55" s="76" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6571,7 +7917,7 @@
       <c r="AT56" s="73"/>
       <c r="AU56" s="70"/>
       <c r="AV56" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6631,7 +7977,7 @@
       <c r="AT57" s="73"/>
       <c r="AU57" s="70"/>
       <c r="AV57" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6699,17 +8045,17 @@
       <c r="AT58" s="73"/>
       <c r="AU58" s="70"/>
       <c r="AV58" s="76" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E59" s="4">
         <v>2012</v>
@@ -6744,11 +8090,11 @@
       <c r="AE59" s="15"/>
       <c r="AF59" s="52"/>
       <c r="AG59" s="59" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AH59" s="60"/>
       <c r="AI59" s="69" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AJ59" s="70">
         <v>108</v>
@@ -6767,17 +8113,17 @@
       <c r="AT59" s="73"/>
       <c r="AU59" s="70"/>
       <c r="AV59" s="82" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E60" s="4">
         <v>2010</v>
@@ -6813,10 +8159,10 @@
       <c r="AF60" s="44"/>
       <c r="AG60" s="59"/>
       <c r="AH60" s="60" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AI60" s="69" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AJ60" s="70">
         <v>29</v>
@@ -6843,13 +8189,13 @@
     <row r="61" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E61" s="4">
         <v>2014</v>
@@ -6897,7 +8243,7 @@
       <c r="AT61" s="73"/>
       <c r="AU61" s="70"/>
       <c r="AV61" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6944,10 +8290,10 @@
       <c r="AE62" s="15"/>
       <c r="AF62" s="52"/>
       <c r="AG62" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH62" s="60" t="s">
         <v>168</v>
-      </c>
-      <c r="AH62" s="60" t="s">
-        <v>169</v>
       </c>
       <c r="AI62" s="69"/>
       <c r="AJ62" s="70">
@@ -6955,7 +8301,7 @@
       </c>
       <c r="AK62" s="71"/>
       <c r="AL62" s="69" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AM62" s="72"/>
       <c r="AN62" s="71"/>
@@ -6967,7 +8313,7 @@
       <c r="AT62" s="73"/>
       <c r="AU62" s="70"/>
       <c r="AV62" s="76" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7024,7 +8370,7 @@
       <c r="AE63" s="15"/>
       <c r="AF63" s="52"/>
       <c r="AG63" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AH63" s="60"/>
       <c r="AI63" s="69">
@@ -7063,7 +8409,7 @@
       <c r="AT63" s="75"/>
       <c r="AU63" s="78"/>
       <c r="AV63" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7110,7 +8456,7 @@
       <c r="AE64" s="15"/>
       <c r="AF64" s="52"/>
       <c r="AG64" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH64" s="60"/>
       <c r="AI64" s="69"/>
@@ -7133,7 +8479,7 @@
       <c r="AT64" s="75"/>
       <c r="AU64" s="70"/>
       <c r="AV64" s="76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7236,7 +8582,7 @@
       <c r="AE66" s="15"/>
       <c r="AF66" s="52"/>
       <c r="AG66" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH66" s="60"/>
       <c r="AI66" s="69"/>
@@ -7253,7 +8599,7 @@
       <c r="AT66" s="73"/>
       <c r="AU66" s="70"/>
       <c r="AV66" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7302,7 +8648,7 @@
       <c r="AE67" s="15"/>
       <c r="AF67" s="52"/>
       <c r="AG67" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH67" s="60"/>
       <c r="AI67" s="69"/>
@@ -7331,7 +8677,7 @@
       <c r="AT67" s="75"/>
       <c r="AU67" s="70"/>
       <c r="AV67" s="76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7376,7 +8722,7 @@
       <c r="AE68" s="15"/>
       <c r="AF68" s="52"/>
       <c r="AG68" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH68" s="60"/>
       <c r="AI68" s="69"/>
@@ -7393,7 +8739,7 @@
       <c r="AT68" s="73"/>
       <c r="AU68" s="70"/>
       <c r="AV68" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7453,11 +8799,19 @@
       <c r="AT69" s="73"/>
       <c r="AU69" s="70"/>
       <c r="AV69" s="76" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI70" s="88" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI71" s="88" t="s">
+        <v>291</v>
+      </c>
+    </row>
     <row r="72" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7568,19 +8922,4472 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AV84"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" style="89" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="89" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="90" customWidth="1"/>
+    <col min="7" max="9" width="5.83203125" style="90" customWidth="1"/>
+    <col min="10" max="48" width="7.5" style="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:48" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="215" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
+    </row>
+    <row r="3" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="220"/>
+    </row>
+    <row r="4" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="218"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="220"/>
+    </row>
+    <row r="5" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="218"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="220"/>
+    </row>
+    <row r="6" spans="2:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="221"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="223"/>
+    </row>
+    <row r="8" spans="2:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="212" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="257" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="258"/>
+      <c r="I9" s="259"/>
+      <c r="J9" s="260" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261"/>
+      <c r="M9" s="261"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="261"/>
+      <c r="S9" s="261"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="261"/>
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="261"/>
+      <c r="AF9" s="261"/>
+      <c r="AG9" s="261"/>
+      <c r="AH9" s="261"/>
+      <c r="AI9" s="261"/>
+      <c r="AJ9" s="261"/>
+      <c r="AK9" s="261"/>
+      <c r="AL9" s="261"/>
+      <c r="AM9" s="261"/>
+      <c r="AN9" s="261"/>
+      <c r="AO9" s="261"/>
+      <c r="AP9" s="261"/>
+      <c r="AQ9" s="261"/>
+      <c r="AR9" s="261"/>
+      <c r="AS9" s="261"/>
+      <c r="AT9" s="261"/>
+      <c r="AU9" s="261"/>
+      <c r="AV9" s="262"/>
+    </row>
+    <row r="10" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="137"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="248" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="250" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="252" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="237" t="s">
+        <v>297</v>
+      </c>
+      <c r="K10" s="238"/>
+      <c r="L10" s="239"/>
+      <c r="M10" s="237" t="s">
+        <v>298</v>
+      </c>
+      <c r="N10" s="238"/>
+      <c r="O10" s="239"/>
+      <c r="P10" s="237" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q10" s="238"/>
+      <c r="R10" s="239"/>
+      <c r="S10" s="237" t="s">
+        <v>302</v>
+      </c>
+      <c r="T10" s="238"/>
+      <c r="U10" s="239"/>
+      <c r="V10" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="W10" s="238"/>
+      <c r="X10" s="239"/>
+      <c r="Y10" s="237" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="239"/>
+      <c r="AB10" s="237" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC10" s="238"/>
+      <c r="AD10" s="239"/>
+      <c r="AE10" s="237" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF10" s="238"/>
+      <c r="AG10" s="239"/>
+      <c r="AH10" s="237" t="s">
+        <v>314</v>
+      </c>
+      <c r="AI10" s="238"/>
+      <c r="AJ10" s="239"/>
+      <c r="AK10" s="237" t="s">
+        <v>315</v>
+      </c>
+      <c r="AL10" s="238"/>
+      <c r="AM10" s="239"/>
+      <c r="AN10" s="243" t="s">
+        <v>320</v>
+      </c>
+      <c r="AO10" s="238"/>
+      <c r="AP10" s="239"/>
+      <c r="AQ10" s="243" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR10" s="238"/>
+      <c r="AS10" s="239"/>
+      <c r="AT10" s="243" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU10" s="238"/>
+      <c r="AV10" s="239"/>
+    </row>
+    <row r="11" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="138"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="248"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="241"/>
+      <c r="L11" s="242"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="241"/>
+      <c r="O11" s="242"/>
+      <c r="P11" s="240"/>
+      <c r="Q11" s="241"/>
+      <c r="R11" s="242"/>
+      <c r="S11" s="240"/>
+      <c r="T11" s="241"/>
+      <c r="U11" s="242"/>
+      <c r="V11" s="240"/>
+      <c r="W11" s="241"/>
+      <c r="X11" s="242"/>
+      <c r="Y11" s="240"/>
+      <c r="Z11" s="241"/>
+      <c r="AA11" s="242"/>
+      <c r="AB11" s="240"/>
+      <c r="AC11" s="241"/>
+      <c r="AD11" s="242"/>
+      <c r="AE11" s="240"/>
+      <c r="AF11" s="241"/>
+      <c r="AG11" s="242"/>
+      <c r="AH11" s="240"/>
+      <c r="AI11" s="241"/>
+      <c r="AJ11" s="242"/>
+      <c r="AK11" s="240"/>
+      <c r="AL11" s="241"/>
+      <c r="AM11" s="242"/>
+      <c r="AN11" s="244"/>
+      <c r="AO11" s="241"/>
+      <c r="AP11" s="242"/>
+      <c r="AQ11" s="244"/>
+      <c r="AR11" s="241"/>
+      <c r="AS11" s="242"/>
+      <c r="AT11" s="244"/>
+      <c r="AU11" s="241"/>
+      <c r="AV11" s="242"/>
+    </row>
+    <row r="12" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="224" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="131"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="240"/>
+      <c r="K12" s="241"/>
+      <c r="L12" s="242"/>
+      <c r="M12" s="240"/>
+      <c r="N12" s="241"/>
+      <c r="O12" s="242"/>
+      <c r="P12" s="240"/>
+      <c r="Q12" s="241"/>
+      <c r="R12" s="242"/>
+      <c r="S12" s="240"/>
+      <c r="T12" s="241"/>
+      <c r="U12" s="242"/>
+      <c r="V12" s="240"/>
+      <c r="W12" s="241"/>
+      <c r="X12" s="242"/>
+      <c r="Y12" s="240"/>
+      <c r="Z12" s="241"/>
+      <c r="AA12" s="242"/>
+      <c r="AB12" s="240"/>
+      <c r="AC12" s="241"/>
+      <c r="AD12" s="242"/>
+      <c r="AE12" s="240"/>
+      <c r="AF12" s="241"/>
+      <c r="AG12" s="242"/>
+      <c r="AH12" s="240"/>
+      <c r="AI12" s="241"/>
+      <c r="AJ12" s="242"/>
+      <c r="AK12" s="240"/>
+      <c r="AL12" s="241"/>
+      <c r="AM12" s="242"/>
+      <c r="AN12" s="244"/>
+      <c r="AO12" s="241"/>
+      <c r="AP12" s="242"/>
+      <c r="AQ12" s="244"/>
+      <c r="AR12" s="241"/>
+      <c r="AS12" s="242"/>
+      <c r="AT12" s="244"/>
+      <c r="AU12" s="241"/>
+      <c r="AV12" s="242"/>
+    </row>
+    <row r="13" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="224"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="250"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="242"/>
+      <c r="M13" s="240"/>
+      <c r="N13" s="241"/>
+      <c r="O13" s="242"/>
+      <c r="P13" s="240"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="242"/>
+      <c r="S13" s="240"/>
+      <c r="T13" s="241"/>
+      <c r="U13" s="242"/>
+      <c r="V13" s="240"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="242"/>
+      <c r="Y13" s="240"/>
+      <c r="Z13" s="241"/>
+      <c r="AA13" s="242"/>
+      <c r="AB13" s="240"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="242"/>
+      <c r="AE13" s="240"/>
+      <c r="AF13" s="241"/>
+      <c r="AG13" s="242"/>
+      <c r="AH13" s="240"/>
+      <c r="AI13" s="241"/>
+      <c r="AJ13" s="242"/>
+      <c r="AK13" s="240"/>
+      <c r="AL13" s="241"/>
+      <c r="AM13" s="242"/>
+      <c r="AN13" s="244"/>
+      <c r="AO13" s="241"/>
+      <c r="AP13" s="242"/>
+      <c r="AQ13" s="244"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="242"/>
+      <c r="AT13" s="244"/>
+      <c r="AU13" s="241"/>
+      <c r="AV13" s="242"/>
+    </row>
+    <row r="14" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="224"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="240"/>
+      <c r="K14" s="241"/>
+      <c r="L14" s="242"/>
+      <c r="M14" s="240"/>
+      <c r="N14" s="241"/>
+      <c r="O14" s="242"/>
+      <c r="P14" s="240"/>
+      <c r="Q14" s="241"/>
+      <c r="R14" s="242"/>
+      <c r="S14" s="240"/>
+      <c r="T14" s="241"/>
+      <c r="U14" s="242"/>
+      <c r="V14" s="240"/>
+      <c r="W14" s="241"/>
+      <c r="X14" s="242"/>
+      <c r="Y14" s="240"/>
+      <c r="Z14" s="241"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="240"/>
+      <c r="AC14" s="241"/>
+      <c r="AD14" s="242"/>
+      <c r="AE14" s="240"/>
+      <c r="AF14" s="241"/>
+      <c r="AG14" s="242"/>
+      <c r="AH14" s="240"/>
+      <c r="AI14" s="241"/>
+      <c r="AJ14" s="242"/>
+      <c r="AK14" s="240"/>
+      <c r="AL14" s="241"/>
+      <c r="AM14" s="242"/>
+      <c r="AN14" s="244"/>
+      <c r="AO14" s="241"/>
+      <c r="AP14" s="242"/>
+      <c r="AQ14" s="244"/>
+      <c r="AR14" s="241"/>
+      <c r="AS14" s="242"/>
+      <c r="AT14" s="244"/>
+      <c r="AU14" s="241"/>
+      <c r="AV14" s="242"/>
+    </row>
+    <row r="15" spans="2:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="225"/>
+      <c r="C15" s="132" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="254"/>
+      <c r="H15" s="255"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="K15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="L15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="M15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="N15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="O15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="P15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="R15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="S15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="T15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="U15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="V15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="W15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="X15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN15" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ15" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS15" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT15" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU15" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="AV15" s="104" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="126"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="121">
+        <v>2012</v>
+      </c>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q16" s="111">
+        <v>30</v>
+      </c>
+      <c r="R16" s="112">
+        <v>13.1</v>
+      </c>
+      <c r="S16" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="T16" s="111">
+        <v>30</v>
+      </c>
+      <c r="U16" s="112">
+        <v>13.8</v>
+      </c>
+      <c r="V16" s="110"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC16" s="111">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="112">
+        <v>11.9</v>
+      </c>
+      <c r="AE16" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF16" s="111">
+        <v>30</v>
+      </c>
+      <c r="AG16" s="112">
+        <v>11.8</v>
+      </c>
+      <c r="AH16" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI16" s="111">
+        <v>30</v>
+      </c>
+      <c r="AJ16" s="112">
+        <v>11.1</v>
+      </c>
+      <c r="AK16" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL16" s="111">
+        <v>30</v>
+      </c>
+      <c r="AM16" s="112">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AN16" s="116"/>
+      <c r="AO16" s="111"/>
+      <c r="AP16" s="112"/>
+      <c r="AQ16" s="116"/>
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="112"/>
+      <c r="AT16" s="116"/>
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="112"/>
+    </row>
+    <row r="17" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="127"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q17" s="100">
+        <v>50</v>
+      </c>
+      <c r="R17" s="101">
+        <v>31.1</v>
+      </c>
+      <c r="S17" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="T17" s="100">
+        <v>50</v>
+      </c>
+      <c r="U17" s="101">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="V17" s="105"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC17" s="100">
+        <v>50</v>
+      </c>
+      <c r="AD17" s="101">
+        <v>28.9</v>
+      </c>
+      <c r="AE17" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF17" s="100">
+        <v>50</v>
+      </c>
+      <c r="AG17" s="101">
+        <v>19.8</v>
+      </c>
+      <c r="AH17" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI17" s="100">
+        <v>50</v>
+      </c>
+      <c r="AJ17" s="101">
+        <v>15</v>
+      </c>
+      <c r="AK17" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL17" s="100">
+        <v>50</v>
+      </c>
+      <c r="AM17" s="101">
+        <v>28.7</v>
+      </c>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="100"/>
+      <c r="AP17" s="101"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="100"/>
+      <c r="AS17" s="101"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="100"/>
+      <c r="AV17" s="101"/>
+    </row>
+    <row r="18" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="128"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="123">
+        <v>2014</v>
+      </c>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="101"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="105"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="101"/>
+      <c r="AK18" s="105"/>
+      <c r="AL18" s="100"/>
+      <c r="AM18" s="101"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="100"/>
+      <c r="AP18" s="101"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="100"/>
+      <c r="AS18" s="101"/>
+      <c r="AT18" s="99"/>
+      <c r="AU18" s="100"/>
+      <c r="AV18" s="101"/>
+    </row>
+    <row r="19" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="129"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="123">
+        <v>2014</v>
+      </c>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="101"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="101"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="100"/>
+      <c r="AP19" s="101"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="100"/>
+      <c r="AS19" s="101"/>
+      <c r="AT19" s="99"/>
+      <c r="AU19" s="100"/>
+      <c r="AV19" s="101"/>
+    </row>
+    <row r="20" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="129"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="123">
+        <v>2014</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="101"/>
+      <c r="AK20" s="105"/>
+      <c r="AL20" s="100"/>
+      <c r="AM20" s="101"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="101"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="100"/>
+      <c r="AS20" s="101"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="100"/>
+      <c r="AV20" s="101"/>
+    </row>
+    <row r="21" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="129"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="122" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="123">
+        <v>2013</v>
+      </c>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="101"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="100"/>
+      <c r="AM21" s="101"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="100"/>
+      <c r="AP21" s="101"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="100"/>
+      <c r="AS21" s="101"/>
+      <c r="AT21" s="99"/>
+      <c r="AU21" s="100"/>
+      <c r="AV21" s="101"/>
+    </row>
+    <row r="22" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="128"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="123">
+        <v>2009</v>
+      </c>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="101"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="105"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="101"/>
+      <c r="AK22" s="105"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="101"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="100"/>
+      <c r="AP22" s="101"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="100"/>
+      <c r="AS22" s="101"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="100"/>
+      <c r="AV22" s="101"/>
+    </row>
+    <row r="23" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="128"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="123">
+        <v>2009</v>
+      </c>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="101"/>
+      <c r="AK23" s="105"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="101"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="100"/>
+      <c r="AP23" s="101"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="100"/>
+      <c r="AS23" s="101"/>
+      <c r="AT23" s="99"/>
+      <c r="AU23" s="100"/>
+      <c r="AV23" s="101"/>
+    </row>
+    <row r="24" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="128"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="123">
+        <v>2015</v>
+      </c>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="101"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="101"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="101"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="100"/>
+      <c r="AS24" s="101"/>
+      <c r="AT24" s="99"/>
+      <c r="AU24" s="100"/>
+      <c r="AV24" s="101"/>
+    </row>
+    <row r="25" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="128"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="123">
+        <v>2014</v>
+      </c>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="101"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="100"/>
+      <c r="AJ25" s="101"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="100"/>
+      <c r="AM25" s="101"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="100"/>
+      <c r="AP25" s="101">
+        <v>51</v>
+      </c>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="100"/>
+      <c r="AS25" s="101"/>
+      <c r="AT25" s="99"/>
+      <c r="AU25" s="100"/>
+      <c r="AV25" s="101"/>
+    </row>
+    <row r="26" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="127"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="101"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="101"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="101"/>
+      <c r="AN26" s="99"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="101">
+        <v>96</v>
+      </c>
+      <c r="AQ26" s="99"/>
+      <c r="AR26" s="100"/>
+      <c r="AS26" s="101"/>
+      <c r="AT26" s="99"/>
+      <c r="AU26" s="100"/>
+      <c r="AV26" s="101"/>
+    </row>
+    <row r="27" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="128"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="123">
+        <v>2013</v>
+      </c>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="101"/>
+      <c r="AK27" s="105"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="101"/>
+      <c r="AN27" s="99"/>
+      <c r="AO27" s="100"/>
+      <c r="AP27" s="101"/>
+      <c r="AQ27" s="99"/>
+      <c r="AR27" s="100"/>
+      <c r="AS27" s="101"/>
+      <c r="AT27" s="99"/>
+      <c r="AU27" s="100"/>
+      <c r="AV27" s="101"/>
+    </row>
+    <row r="28" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="128"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="123">
+        <v>2011</v>
+      </c>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="105"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="105"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="99"/>
+      <c r="AO28" s="100"/>
+      <c r="AP28" s="101"/>
+      <c r="AQ28" s="99"/>
+      <c r="AR28" s="100"/>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="99"/>
+      <c r="AU28" s="100"/>
+      <c r="AV28" s="101"/>
+    </row>
+    <row r="29" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="128"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="123">
+        <v>2013</v>
+      </c>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="105"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="105"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="101"/>
+      <c r="AK29" s="105"/>
+      <c r="AL29" s="100"/>
+      <c r="AM29" s="101"/>
+      <c r="AN29" s="99"/>
+      <c r="AO29" s="100"/>
+      <c r="AP29" s="101"/>
+      <c r="AQ29" s="99"/>
+      <c r="AR29" s="100"/>
+      <c r="AS29" s="101"/>
+      <c r="AT29" s="99"/>
+      <c r="AU29" s="100"/>
+      <c r="AV29" s="101"/>
+    </row>
+    <row r="30" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="128"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="123">
+        <v>2015</v>
+      </c>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="105"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="105"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="101"/>
+      <c r="AK30" s="105"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="101"/>
+      <c r="AN30" s="99"/>
+      <c r="AO30" s="100"/>
+      <c r="AP30" s="101"/>
+      <c r="AQ30" s="99"/>
+      <c r="AR30" s="100"/>
+      <c r="AS30" s="101"/>
+      <c r="AT30" s="99"/>
+      <c r="AU30" s="100"/>
+      <c r="AV30" s="101"/>
+    </row>
+    <row r="31" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="128"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="123">
+        <v>2008</v>
+      </c>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="105"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="105"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="105"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="105"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="101"/>
+      <c r="AK31" s="105"/>
+      <c r="AL31" s="100"/>
+      <c r="AM31" s="101"/>
+      <c r="AN31" s="99"/>
+      <c r="AO31" s="100"/>
+      <c r="AP31" s="101"/>
+      <c r="AQ31" s="99"/>
+      <c r="AR31" s="100"/>
+      <c r="AS31" s="101"/>
+      <c r="AT31" s="99"/>
+      <c r="AU31" s="100"/>
+      <c r="AV31" s="101"/>
+    </row>
+    <row r="32" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="128"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="123">
+        <v>2012</v>
+      </c>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="105"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="105"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="101"/>
+      <c r="AK32" s="105"/>
+      <c r="AL32" s="100"/>
+      <c r="AM32" s="101"/>
+      <c r="AN32" s="99"/>
+      <c r="AO32" s="100"/>
+      <c r="AP32" s="101"/>
+      <c r="AQ32" s="99"/>
+      <c r="AR32" s="100"/>
+      <c r="AS32" s="101"/>
+      <c r="AT32" s="99"/>
+      <c r="AU32" s="100"/>
+      <c r="AV32" s="101"/>
+    </row>
+    <row r="33" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="128"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="123">
+        <v>2011</v>
+      </c>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="105"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="100"/>
+      <c r="AJ33" s="101"/>
+      <c r="AK33" s="105"/>
+      <c r="AL33" s="100"/>
+      <c r="AM33" s="101"/>
+      <c r="AN33" s="99"/>
+      <c r="AO33" s="100"/>
+      <c r="AP33" s="101"/>
+      <c r="AQ33" s="99"/>
+      <c r="AR33" s="100"/>
+      <c r="AS33" s="101"/>
+      <c r="AT33" s="99"/>
+      <c r="AU33" s="100"/>
+      <c r="AV33" s="101"/>
+    </row>
+    <row r="34" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="129"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="123">
+        <v>2010</v>
+      </c>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="100"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="105"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="101"/>
+      <c r="AB34" s="105"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="101"/>
+      <c r="AE34" s="105"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="101"/>
+      <c r="AH34" s="105"/>
+      <c r="AI34" s="100"/>
+      <c r="AJ34" s="101"/>
+      <c r="AK34" s="105"/>
+      <c r="AL34" s="100"/>
+      <c r="AM34" s="101"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="100"/>
+      <c r="AP34" s="101"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="100"/>
+      <c r="AS34" s="101"/>
+      <c r="AT34" s="99"/>
+      <c r="AU34" s="100"/>
+      <c r="AV34" s="101"/>
+    </row>
+    <row r="35" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="129"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="123">
+        <v>2011</v>
+      </c>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="105"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="101"/>
+      <c r="Y35" s="105"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="101"/>
+      <c r="AB35" s="105"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="101"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="101"/>
+      <c r="AH35" s="105"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="101"/>
+      <c r="AK35" s="105"/>
+      <c r="AL35" s="100"/>
+      <c r="AM35" s="101"/>
+      <c r="AN35" s="99"/>
+      <c r="AO35" s="100"/>
+      <c r="AP35" s="101"/>
+      <c r="AQ35" s="99"/>
+      <c r="AR35" s="100"/>
+      <c r="AS35" s="101"/>
+      <c r="AT35" s="99"/>
+      <c r="AU35" s="100"/>
+      <c r="AV35" s="101"/>
+    </row>
+    <row r="36" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="129"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="122" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="122" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="123">
+        <v>2015</v>
+      </c>
+      <c r="G36" s="91"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="105"/>
+      <c r="W36" s="100"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="105"/>
+      <c r="Z36" s="100"/>
+      <c r="AA36" s="101"/>
+      <c r="AB36" s="105"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="101"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="100"/>
+      <c r="AG36" s="101"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="101"/>
+      <c r="AK36" s="105"/>
+      <c r="AL36" s="100"/>
+      <c r="AM36" s="101"/>
+      <c r="AN36" s="99"/>
+      <c r="AO36" s="100"/>
+      <c r="AP36" s="101"/>
+      <c r="AQ36" s="99"/>
+      <c r="AR36" s="100"/>
+      <c r="AS36" s="101"/>
+      <c r="AT36" s="99"/>
+      <c r="AU36" s="100"/>
+      <c r="AV36" s="101"/>
+    </row>
+    <row r="37" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="129"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="123">
+        <v>2012</v>
+      </c>
+      <c r="G37" s="91"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="101"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="105"/>
+      <c r="W37" s="100"/>
+      <c r="X37" s="101"/>
+      <c r="Y37" s="105"/>
+      <c r="Z37" s="100"/>
+      <c r="AA37" s="101"/>
+      <c r="AB37" s="105"/>
+      <c r="AC37" s="100"/>
+      <c r="AD37" s="101"/>
+      <c r="AE37" s="105"/>
+      <c r="AF37" s="100"/>
+      <c r="AG37" s="101"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="100"/>
+      <c r="AJ37" s="101"/>
+      <c r="AK37" s="105"/>
+      <c r="AL37" s="100"/>
+      <c r="AM37" s="101"/>
+      <c r="AN37" s="99"/>
+      <c r="AO37" s="100"/>
+      <c r="AP37" s="101"/>
+      <c r="AQ37" s="99"/>
+      <c r="AR37" s="100"/>
+      <c r="AS37" s="101"/>
+      <c r="AT37" s="99"/>
+      <c r="AU37" s="100"/>
+      <c r="AV37" s="101"/>
+    </row>
+    <row r="38" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="129"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="123">
+        <v>2013</v>
+      </c>
+      <c r="G38" s="91"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="105"/>
+      <c r="W38" s="100"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="105"/>
+      <c r="Z38" s="100"/>
+      <c r="AA38" s="101"/>
+      <c r="AB38" s="105"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="101"/>
+      <c r="AE38" s="105"/>
+      <c r="AF38" s="100"/>
+      <c r="AG38" s="101"/>
+      <c r="AH38" s="105"/>
+      <c r="AI38" s="100"/>
+      <c r="AJ38" s="101"/>
+      <c r="AK38" s="105"/>
+      <c r="AL38" s="100"/>
+      <c r="AM38" s="101"/>
+      <c r="AN38" s="99"/>
+      <c r="AO38" s="100"/>
+      <c r="AP38" s="101"/>
+      <c r="AQ38" s="99"/>
+      <c r="AR38" s="100"/>
+      <c r="AS38" s="101"/>
+      <c r="AT38" s="99"/>
+      <c r="AU38" s="100"/>
+      <c r="AV38" s="101"/>
+    </row>
+    <row r="39" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="129"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="123">
+        <v>2016</v>
+      </c>
+      <c r="G39" s="91"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="100"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="100"/>
+      <c r="X39" s="101"/>
+      <c r="Y39" s="105"/>
+      <c r="Z39" s="100"/>
+      <c r="AA39" s="101"/>
+      <c r="AB39" s="105"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="101"/>
+      <c r="AE39" s="105"/>
+      <c r="AF39" s="100"/>
+      <c r="AG39" s="101"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="100"/>
+      <c r="AJ39" s="101"/>
+      <c r="AK39" s="105"/>
+      <c r="AL39" s="100"/>
+      <c r="AM39" s="101"/>
+      <c r="AN39" s="99"/>
+      <c r="AO39" s="100"/>
+      <c r="AP39" s="101"/>
+      <c r="AQ39" s="99"/>
+      <c r="AR39" s="100"/>
+      <c r="AS39" s="101"/>
+      <c r="AT39" s="99"/>
+      <c r="AU39" s="100"/>
+      <c r="AV39" s="101"/>
+    </row>
+    <row r="40" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="129"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="123">
+        <v>2011</v>
+      </c>
+      <c r="G40" s="91"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="100"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="100"/>
+      <c r="AA40" s="101"/>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="100"/>
+      <c r="AD40" s="101"/>
+      <c r="AE40" s="105"/>
+      <c r="AF40" s="100"/>
+      <c r="AG40" s="101"/>
+      <c r="AH40" s="105"/>
+      <c r="AI40" s="100"/>
+      <c r="AJ40" s="101"/>
+      <c r="AK40" s="105"/>
+      <c r="AL40" s="100"/>
+      <c r="AM40" s="101"/>
+      <c r="AN40" s="99"/>
+      <c r="AO40" s="100"/>
+      <c r="AP40" s="101"/>
+      <c r="AQ40" s="99"/>
+      <c r="AR40" s="100"/>
+      <c r="AS40" s="101"/>
+      <c r="AT40" s="99"/>
+      <c r="AU40" s="100"/>
+      <c r="AV40" s="101"/>
+    </row>
+    <row r="41" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="129"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="122" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="123">
+        <v>2009</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="105"/>
+      <c r="T41" s="100"/>
+      <c r="U41" s="101"/>
+      <c r="V41" s="105"/>
+      <c r="W41" s="100"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="105"/>
+      <c r="Z41" s="100"/>
+      <c r="AA41" s="101"/>
+      <c r="AB41" s="105"/>
+      <c r="AC41" s="100"/>
+      <c r="AD41" s="101"/>
+      <c r="AE41" s="105"/>
+      <c r="AF41" s="100"/>
+      <c r="AG41" s="101"/>
+      <c r="AH41" s="105"/>
+      <c r="AI41" s="100"/>
+      <c r="AJ41" s="101"/>
+      <c r="AK41" s="105"/>
+      <c r="AL41" s="100"/>
+      <c r="AM41" s="101"/>
+      <c r="AN41" s="99"/>
+      <c r="AO41" s="100"/>
+      <c r="AP41" s="101"/>
+      <c r="AQ41" s="99"/>
+      <c r="AR41" s="100"/>
+      <c r="AS41" s="101"/>
+      <c r="AT41" s="99"/>
+      <c r="AU41" s="100"/>
+      <c r="AV41" s="101"/>
+    </row>
+    <row r="42" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="128"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="122" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="123">
+        <v>2010</v>
+      </c>
+      <c r="G42" s="91"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="105"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="100"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="105"/>
+      <c r="Z42" s="100"/>
+      <c r="AA42" s="101"/>
+      <c r="AB42" s="105"/>
+      <c r="AC42" s="100"/>
+      <c r="AD42" s="101"/>
+      <c r="AE42" s="105"/>
+      <c r="AF42" s="100"/>
+      <c r="AG42" s="101"/>
+      <c r="AH42" s="105"/>
+      <c r="AI42" s="100"/>
+      <c r="AJ42" s="101"/>
+      <c r="AK42" s="105"/>
+      <c r="AL42" s="100"/>
+      <c r="AM42" s="101"/>
+      <c r="AN42" s="99"/>
+      <c r="AO42" s="100"/>
+      <c r="AP42" s="101"/>
+      <c r="AQ42" s="99"/>
+      <c r="AR42" s="100"/>
+      <c r="AS42" s="101"/>
+      <c r="AT42" s="99"/>
+      <c r="AU42" s="100"/>
+      <c r="AV42" s="101"/>
+    </row>
+    <row r="43" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="128"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="123">
+        <v>2010</v>
+      </c>
+      <c r="G43" s="91"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="101"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="100"/>
+      <c r="U43" s="101"/>
+      <c r="V43" s="105"/>
+      <c r="W43" s="100"/>
+      <c r="X43" s="101"/>
+      <c r="Y43" s="105"/>
+      <c r="Z43" s="100"/>
+      <c r="AA43" s="101"/>
+      <c r="AB43" s="105"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="101"/>
+      <c r="AE43" s="105"/>
+      <c r="AF43" s="100"/>
+      <c r="AG43" s="101"/>
+      <c r="AH43" s="105"/>
+      <c r="AI43" s="100"/>
+      <c r="AJ43" s="101"/>
+      <c r="AK43" s="105"/>
+      <c r="AL43" s="100"/>
+      <c r="AM43" s="101"/>
+      <c r="AN43" s="99"/>
+      <c r="AO43" s="100"/>
+      <c r="AP43" s="101"/>
+      <c r="AQ43" s="99"/>
+      <c r="AR43" s="100"/>
+      <c r="AS43" s="101"/>
+      <c r="AT43" s="99"/>
+      <c r="AU43" s="100"/>
+      <c r="AV43" s="101"/>
+    </row>
+    <row r="44" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="128"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="123">
+        <v>2009</v>
+      </c>
+      <c r="G44" s="91"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="105"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="101"/>
+      <c r="V44" s="105"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="101"/>
+      <c r="Y44" s="105"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="101"/>
+      <c r="AB44" s="105"/>
+      <c r="AC44" s="100"/>
+      <c r="AD44" s="101"/>
+      <c r="AE44" s="105"/>
+      <c r="AF44" s="100"/>
+      <c r="AG44" s="101"/>
+      <c r="AH44" s="105"/>
+      <c r="AI44" s="100"/>
+      <c r="AJ44" s="101"/>
+      <c r="AK44" s="105"/>
+      <c r="AL44" s="100"/>
+      <c r="AM44" s="101"/>
+      <c r="AN44" s="99"/>
+      <c r="AO44" s="100"/>
+      <c r="AP44" s="101"/>
+      <c r="AQ44" s="99"/>
+      <c r="AR44" s="100"/>
+      <c r="AS44" s="101"/>
+      <c r="AT44" s="99"/>
+      <c r="AU44" s="100"/>
+      <c r="AV44" s="101"/>
+    </row>
+    <row r="45" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="129"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="123">
+        <v>2016</v>
+      </c>
+      <c r="G45" s="91"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="100"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="105"/>
+      <c r="T45" s="100"/>
+      <c r="U45" s="101"/>
+      <c r="V45" s="105"/>
+      <c r="W45" s="100"/>
+      <c r="X45" s="101"/>
+      <c r="Y45" s="105"/>
+      <c r="Z45" s="100"/>
+      <c r="AA45" s="101"/>
+      <c r="AB45" s="105"/>
+      <c r="AC45" s="100"/>
+      <c r="AD45" s="101"/>
+      <c r="AE45" s="105"/>
+      <c r="AF45" s="100"/>
+      <c r="AG45" s="101"/>
+      <c r="AH45" s="105"/>
+      <c r="AI45" s="100"/>
+      <c r="AJ45" s="101"/>
+      <c r="AK45" s="105"/>
+      <c r="AL45" s="100"/>
+      <c r="AM45" s="101"/>
+      <c r="AN45" s="99"/>
+      <c r="AO45" s="100"/>
+      <c r="AP45" s="101"/>
+      <c r="AQ45" s="99"/>
+      <c r="AR45" s="100"/>
+      <c r="AS45" s="101"/>
+      <c r="AT45" s="99"/>
+      <c r="AU45" s="100"/>
+      <c r="AV45" s="101"/>
+    </row>
+    <row r="46" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="128"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="122" t="s">
+        <v>246</v>
+      </c>
+      <c r="E46" s="122" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="123">
+        <v>2013</v>
+      </c>
+      <c r="G46" s="91"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="101"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="101"/>
+      <c r="S46" s="105"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="101"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="101"/>
+      <c r="Y46" s="105"/>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="101"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="100"/>
+      <c r="AD46" s="101"/>
+      <c r="AE46" s="105"/>
+      <c r="AF46" s="100"/>
+      <c r="AG46" s="101"/>
+      <c r="AH46" s="105"/>
+      <c r="AI46" s="100"/>
+      <c r="AJ46" s="101"/>
+      <c r="AK46" s="105"/>
+      <c r="AL46" s="100"/>
+      <c r="AM46" s="101"/>
+      <c r="AN46" s="99"/>
+      <c r="AO46" s="100"/>
+      <c r="AP46" s="101"/>
+      <c r="AQ46" s="99"/>
+      <c r="AR46" s="100"/>
+      <c r="AS46" s="101"/>
+      <c r="AT46" s="99"/>
+      <c r="AU46" s="100"/>
+      <c r="AV46" s="101"/>
+    </row>
+    <row r="47" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="128"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="123">
+        <v>2009</v>
+      </c>
+      <c r="G47" s="91"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="100"/>
+      <c r="O47" s="101"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="101"/>
+      <c r="S47" s="105"/>
+      <c r="T47" s="100"/>
+      <c r="U47" s="101"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="100"/>
+      <c r="X47" s="101"/>
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="100"/>
+      <c r="AA47" s="101"/>
+      <c r="AB47" s="105"/>
+      <c r="AC47" s="100"/>
+      <c r="AD47" s="101"/>
+      <c r="AE47" s="105"/>
+      <c r="AF47" s="100"/>
+      <c r="AG47" s="101"/>
+      <c r="AH47" s="105"/>
+      <c r="AI47" s="100"/>
+      <c r="AJ47" s="101"/>
+      <c r="AK47" s="105"/>
+      <c r="AL47" s="100"/>
+      <c r="AM47" s="101"/>
+      <c r="AN47" s="99"/>
+      <c r="AO47" s="100"/>
+      <c r="AP47" s="101"/>
+      <c r="AQ47" s="99"/>
+      <c r="AR47" s="100"/>
+      <c r="AS47" s="101"/>
+      <c r="AT47" s="99"/>
+      <c r="AU47" s="100"/>
+      <c r="AV47" s="101"/>
+    </row>
+    <row r="48" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="129"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="122" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" s="123">
+        <v>2014</v>
+      </c>
+      <c r="G48" s="91"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="101"/>
+      <c r="V48" s="105"/>
+      <c r="W48" s="100"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="105"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="105"/>
+      <c r="AC48" s="100"/>
+      <c r="AD48" s="101"/>
+      <c r="AE48" s="105"/>
+      <c r="AF48" s="100"/>
+      <c r="AG48" s="101"/>
+      <c r="AH48" s="105"/>
+      <c r="AI48" s="100"/>
+      <c r="AJ48" s="101"/>
+      <c r="AK48" s="105"/>
+      <c r="AL48" s="100"/>
+      <c r="AM48" s="101"/>
+      <c r="AN48" s="99"/>
+      <c r="AO48" s="100"/>
+      <c r="AP48" s="101"/>
+      <c r="AQ48" s="99"/>
+      <c r="AR48" s="100"/>
+      <c r="AS48" s="101"/>
+      <c r="AT48" s="99"/>
+      <c r="AU48" s="100"/>
+      <c r="AV48" s="101"/>
+    </row>
+    <row r="49" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="128"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="123">
+        <v>2003</v>
+      </c>
+      <c r="G49" s="91"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="100"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="100"/>
+      <c r="R49" s="101"/>
+      <c r="S49" s="105"/>
+      <c r="T49" s="100"/>
+      <c r="U49" s="101"/>
+      <c r="V49" s="105"/>
+      <c r="W49" s="100"/>
+      <c r="X49" s="101"/>
+      <c r="Y49" s="105"/>
+      <c r="Z49" s="100"/>
+      <c r="AA49" s="101"/>
+      <c r="AB49" s="105"/>
+      <c r="AC49" s="100"/>
+      <c r="AD49" s="101"/>
+      <c r="AE49" s="105"/>
+      <c r="AF49" s="100"/>
+      <c r="AG49" s="101"/>
+      <c r="AH49" s="105"/>
+      <c r="AI49" s="100"/>
+      <c r="AJ49" s="101"/>
+      <c r="AK49" s="105"/>
+      <c r="AL49" s="100"/>
+      <c r="AM49" s="101"/>
+      <c r="AN49" s="99"/>
+      <c r="AO49" s="100"/>
+      <c r="AP49" s="101"/>
+      <c r="AQ49" s="99"/>
+      <c r="AR49" s="100"/>
+      <c r="AS49" s="101"/>
+      <c r="AT49" s="99"/>
+      <c r="AU49" s="100"/>
+      <c r="AV49" s="101"/>
+    </row>
+    <row r="50" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="128"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="123">
+        <v>2003</v>
+      </c>
+      <c r="G50" s="91"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="101"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="101"/>
+      <c r="S50" s="105"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="101"/>
+      <c r="V50" s="105"/>
+      <c r="W50" s="100"/>
+      <c r="X50" s="101"/>
+      <c r="Y50" s="105"/>
+      <c r="Z50" s="100"/>
+      <c r="AA50" s="101"/>
+      <c r="AB50" s="105"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="101"/>
+      <c r="AE50" s="105"/>
+      <c r="AF50" s="100"/>
+      <c r="AG50" s="101"/>
+      <c r="AH50" s="105"/>
+      <c r="AI50" s="100"/>
+      <c r="AJ50" s="101"/>
+      <c r="AK50" s="105"/>
+      <c r="AL50" s="100"/>
+      <c r="AM50" s="101"/>
+      <c r="AN50" s="99"/>
+      <c r="AO50" s="100"/>
+      <c r="AP50" s="101"/>
+      <c r="AQ50" s="99"/>
+      <c r="AR50" s="100"/>
+      <c r="AS50" s="101"/>
+      <c r="AT50" s="99"/>
+      <c r="AU50" s="100"/>
+      <c r="AV50" s="101"/>
+    </row>
+    <row r="51" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="128"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="122" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="123">
+        <v>2005</v>
+      </c>
+      <c r="G51" s="91"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="101"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="101"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="101"/>
+      <c r="V51" s="105"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="101"/>
+      <c r="Y51" s="105"/>
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="101"/>
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="100"/>
+      <c r="AD51" s="101"/>
+      <c r="AE51" s="105"/>
+      <c r="AF51" s="100"/>
+      <c r="AG51" s="101"/>
+      <c r="AH51" s="105"/>
+      <c r="AI51" s="100"/>
+      <c r="AJ51" s="101"/>
+      <c r="AK51" s="105"/>
+      <c r="AL51" s="100"/>
+      <c r="AM51" s="101"/>
+      <c r="AN51" s="99"/>
+      <c r="AO51" s="100"/>
+      <c r="AP51" s="101"/>
+      <c r="AQ51" s="99"/>
+      <c r="AR51" s="100"/>
+      <c r="AS51" s="101"/>
+      <c r="AT51" s="99"/>
+      <c r="AU51" s="100"/>
+      <c r="AV51" s="101"/>
+    </row>
+    <row r="52" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="129"/>
+      <c r="C52" s="135" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="122" t="s">
+        <v>261</v>
+      </c>
+      <c r="E52" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="F52" s="123">
+        <v>2015</v>
+      </c>
+      <c r="G52" s="91"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="105"/>
+      <c r="T52" s="100"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="105"/>
+      <c r="W52" s="100"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="105"/>
+      <c r="Z52" s="100"/>
+      <c r="AA52" s="101"/>
+      <c r="AB52" s="105"/>
+      <c r="AC52" s="100"/>
+      <c r="AD52" s="101"/>
+      <c r="AE52" s="105"/>
+      <c r="AF52" s="100"/>
+      <c r="AG52" s="101"/>
+      <c r="AH52" s="105"/>
+      <c r="AI52" s="100"/>
+      <c r="AJ52" s="101"/>
+      <c r="AK52" s="105"/>
+      <c r="AL52" s="100"/>
+      <c r="AM52" s="101"/>
+      <c r="AN52" s="99"/>
+      <c r="AO52" s="100"/>
+      <c r="AP52" s="101"/>
+      <c r="AQ52" s="99"/>
+      <c r="AR52" s="100"/>
+      <c r="AS52" s="101"/>
+      <c r="AT52" s="99"/>
+      <c r="AU52" s="100"/>
+      <c r="AV52" s="101"/>
+    </row>
+    <row r="53" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="128"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="122" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="123">
+        <v>2016</v>
+      </c>
+      <c r="G53" s="91"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="101"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="101"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="101"/>
+      <c r="S53" s="105"/>
+      <c r="T53" s="100"/>
+      <c r="U53" s="101"/>
+      <c r="V53" s="105"/>
+      <c r="W53" s="100"/>
+      <c r="X53" s="101"/>
+      <c r="Y53" s="105"/>
+      <c r="Z53" s="100"/>
+      <c r="AA53" s="101"/>
+      <c r="AB53" s="105"/>
+      <c r="AC53" s="100"/>
+      <c r="AD53" s="101"/>
+      <c r="AE53" s="105"/>
+      <c r="AF53" s="100"/>
+      <c r="AG53" s="101"/>
+      <c r="AH53" s="105"/>
+      <c r="AI53" s="100"/>
+      <c r="AJ53" s="101"/>
+      <c r="AK53" s="105"/>
+      <c r="AL53" s="100"/>
+      <c r="AM53" s="101"/>
+      <c r="AN53" s="99"/>
+      <c r="AO53" s="100"/>
+      <c r="AP53" s="101"/>
+      <c r="AQ53" s="99"/>
+      <c r="AR53" s="100"/>
+      <c r="AS53" s="101"/>
+      <c r="AT53" s="99"/>
+      <c r="AU53" s="100"/>
+      <c r="AV53" s="101"/>
+    </row>
+    <row r="54" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="128"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="122" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="123">
+        <v>2011</v>
+      </c>
+      <c r="G54" s="91"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="101"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="101"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="100"/>
+      <c r="R54" s="101"/>
+      <c r="S54" s="105"/>
+      <c r="T54" s="100"/>
+      <c r="U54" s="101"/>
+      <c r="V54" s="105"/>
+      <c r="W54" s="100"/>
+      <c r="X54" s="101"/>
+      <c r="Y54" s="105"/>
+      <c r="Z54" s="100"/>
+      <c r="AA54" s="101"/>
+      <c r="AB54" s="105"/>
+      <c r="AC54" s="100"/>
+      <c r="AD54" s="101"/>
+      <c r="AE54" s="105"/>
+      <c r="AF54" s="100"/>
+      <c r="AG54" s="101"/>
+      <c r="AH54" s="105"/>
+      <c r="AI54" s="100"/>
+      <c r="AJ54" s="101"/>
+      <c r="AK54" s="105"/>
+      <c r="AL54" s="100"/>
+      <c r="AM54" s="101"/>
+      <c r="AN54" s="99"/>
+      <c r="AO54" s="100"/>
+      <c r="AP54" s="101"/>
+      <c r="AQ54" s="99"/>
+      <c r="AR54" s="100"/>
+      <c r="AS54" s="101"/>
+      <c r="AT54" s="99"/>
+      <c r="AU54" s="100"/>
+      <c r="AV54" s="101"/>
+    </row>
+    <row r="55" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="128"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="123">
+        <v>2007</v>
+      </c>
+      <c r="G55" s="91"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="101"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="100"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="105"/>
+      <c r="T55" s="100"/>
+      <c r="U55" s="101"/>
+      <c r="V55" s="105"/>
+      <c r="W55" s="100"/>
+      <c r="X55" s="101"/>
+      <c r="Y55" s="105"/>
+      <c r="Z55" s="100"/>
+      <c r="AA55" s="101"/>
+      <c r="AB55" s="105"/>
+      <c r="AC55" s="100"/>
+      <c r="AD55" s="101"/>
+      <c r="AE55" s="105"/>
+      <c r="AF55" s="100"/>
+      <c r="AG55" s="101"/>
+      <c r="AH55" s="105"/>
+      <c r="AI55" s="100"/>
+      <c r="AJ55" s="101"/>
+      <c r="AK55" s="105"/>
+      <c r="AL55" s="100"/>
+      <c r="AM55" s="101"/>
+      <c r="AN55" s="99"/>
+      <c r="AO55" s="100"/>
+      <c r="AP55" s="101"/>
+      <c r="AQ55" s="99"/>
+      <c r="AR55" s="100"/>
+      <c r="AS55" s="101"/>
+      <c r="AT55" s="99"/>
+      <c r="AU55" s="100"/>
+      <c r="AV55" s="101"/>
+    </row>
+    <row r="56" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="129"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="122" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" s="122" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" s="123">
+        <v>2011</v>
+      </c>
+      <c r="G56" s="91"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="100"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="105"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="105"/>
+      <c r="T56" s="100"/>
+      <c r="U56" s="101"/>
+      <c r="V56" s="105"/>
+      <c r="W56" s="100"/>
+      <c r="X56" s="101"/>
+      <c r="Y56" s="105"/>
+      <c r="Z56" s="100"/>
+      <c r="AA56" s="101"/>
+      <c r="AB56" s="105"/>
+      <c r="AC56" s="100"/>
+      <c r="AD56" s="101"/>
+      <c r="AE56" s="105"/>
+      <c r="AF56" s="100"/>
+      <c r="AG56" s="101"/>
+      <c r="AH56" s="105"/>
+      <c r="AI56" s="100"/>
+      <c r="AJ56" s="101"/>
+      <c r="AK56" s="105"/>
+      <c r="AL56" s="100"/>
+      <c r="AM56" s="101"/>
+      <c r="AN56" s="99"/>
+      <c r="AO56" s="100"/>
+      <c r="AP56" s="101"/>
+      <c r="AQ56" s="99"/>
+      <c r="AR56" s="100"/>
+      <c r="AS56" s="101"/>
+      <c r="AT56" s="99"/>
+      <c r="AU56" s="100"/>
+      <c r="AV56" s="101"/>
+    </row>
+    <row r="57" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="129"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="123">
+        <v>2013</v>
+      </c>
+      <c r="G57" s="91"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="100"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="105"/>
+      <c r="T57" s="100"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="105"/>
+      <c r="W57" s="100"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="105"/>
+      <c r="Z57" s="100"/>
+      <c r="AA57" s="101"/>
+      <c r="AB57" s="105"/>
+      <c r="AC57" s="100"/>
+      <c r="AD57" s="101"/>
+      <c r="AE57" s="105"/>
+      <c r="AF57" s="100"/>
+      <c r="AG57" s="101"/>
+      <c r="AH57" s="105"/>
+      <c r="AI57" s="100"/>
+      <c r="AJ57" s="101"/>
+      <c r="AK57" s="105"/>
+      <c r="AL57" s="100"/>
+      <c r="AM57" s="101"/>
+      <c r="AN57" s="99"/>
+      <c r="AO57" s="100"/>
+      <c r="AP57" s="101"/>
+      <c r="AQ57" s="99"/>
+      <c r="AR57" s="100"/>
+      <c r="AS57" s="101"/>
+      <c r="AT57" s="99"/>
+      <c r="AU57" s="100"/>
+      <c r="AV57" s="101"/>
+    </row>
+    <row r="58" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="128"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="123">
+        <v>2014</v>
+      </c>
+      <c r="G58" s="91"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="100"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="105"/>
+      <c r="T58" s="100"/>
+      <c r="U58" s="101"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="100"/>
+      <c r="X58" s="101"/>
+      <c r="Y58" s="105"/>
+      <c r="Z58" s="100"/>
+      <c r="AA58" s="101"/>
+      <c r="AB58" s="105"/>
+      <c r="AC58" s="100"/>
+      <c r="AD58" s="101"/>
+      <c r="AE58" s="105"/>
+      <c r="AF58" s="100"/>
+      <c r="AG58" s="101"/>
+      <c r="AH58" s="105"/>
+      <c r="AI58" s="100"/>
+      <c r="AJ58" s="101"/>
+      <c r="AK58" s="105"/>
+      <c r="AL58" s="100"/>
+      <c r="AM58" s="101"/>
+      <c r="AN58" s="99"/>
+      <c r="AO58" s="100"/>
+      <c r="AP58" s="101"/>
+      <c r="AQ58" s="99"/>
+      <c r="AR58" s="100"/>
+      <c r="AS58" s="101"/>
+      <c r="AT58" s="99"/>
+      <c r="AU58" s="100"/>
+      <c r="AV58" s="101"/>
+    </row>
+    <row r="59" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="128"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" s="122" t="s">
+        <v>273</v>
+      </c>
+      <c r="F59" s="123">
+        <v>2013</v>
+      </c>
+      <c r="G59" s="91"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="105"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="101"/>
+      <c r="S59" s="105"/>
+      <c r="T59" s="100"/>
+      <c r="U59" s="101"/>
+      <c r="V59" s="105"/>
+      <c r="W59" s="100"/>
+      <c r="X59" s="101"/>
+      <c r="Y59" s="105"/>
+      <c r="Z59" s="100"/>
+      <c r="AA59" s="101"/>
+      <c r="AB59" s="105"/>
+      <c r="AC59" s="100"/>
+      <c r="AD59" s="101"/>
+      <c r="AE59" s="105"/>
+      <c r="AF59" s="100"/>
+      <c r="AG59" s="101"/>
+      <c r="AH59" s="105"/>
+      <c r="AI59" s="100"/>
+      <c r="AJ59" s="101"/>
+      <c r="AK59" s="105"/>
+      <c r="AL59" s="100"/>
+      <c r="AM59" s="101"/>
+      <c r="AN59" s="99"/>
+      <c r="AO59" s="100"/>
+      <c r="AP59" s="101"/>
+      <c r="AQ59" s="99"/>
+      <c r="AR59" s="100"/>
+      <c r="AS59" s="101"/>
+      <c r="AT59" s="99"/>
+      <c r="AU59" s="100"/>
+      <c r="AV59" s="101"/>
+    </row>
+    <row r="60" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="129"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="123">
+        <v>2008</v>
+      </c>
+      <c r="G60" s="91"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="101"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="105"/>
+      <c r="Q60" s="100"/>
+      <c r="R60" s="101"/>
+      <c r="S60" s="105"/>
+      <c r="T60" s="100"/>
+      <c r="U60" s="101"/>
+      <c r="V60" s="105"/>
+      <c r="W60" s="100"/>
+      <c r="X60" s="101"/>
+      <c r="Y60" s="105"/>
+      <c r="Z60" s="100"/>
+      <c r="AA60" s="101"/>
+      <c r="AB60" s="105"/>
+      <c r="AC60" s="100"/>
+      <c r="AD60" s="101"/>
+      <c r="AE60" s="105"/>
+      <c r="AF60" s="100"/>
+      <c r="AG60" s="101"/>
+      <c r="AH60" s="105"/>
+      <c r="AI60" s="100"/>
+      <c r="AJ60" s="101"/>
+      <c r="AK60" s="105"/>
+      <c r="AL60" s="100"/>
+      <c r="AM60" s="101"/>
+      <c r="AN60" s="99"/>
+      <c r="AO60" s="100"/>
+      <c r="AP60" s="101"/>
+      <c r="AQ60" s="99"/>
+      <c r="AR60" s="100"/>
+      <c r="AS60" s="101"/>
+      <c r="AT60" s="99"/>
+      <c r="AU60" s="100"/>
+      <c r="AV60" s="101"/>
+    </row>
+    <row r="61" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="128"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="123">
+        <v>2007</v>
+      </c>
+      <c r="G61" s="91"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="100"/>
+      <c r="R61" s="101"/>
+      <c r="S61" s="105"/>
+      <c r="T61" s="100"/>
+      <c r="U61" s="101"/>
+      <c r="V61" s="105"/>
+      <c r="W61" s="100"/>
+      <c r="X61" s="101"/>
+      <c r="Y61" s="105"/>
+      <c r="Z61" s="100"/>
+      <c r="AA61" s="101"/>
+      <c r="AB61" s="105"/>
+      <c r="AC61" s="100"/>
+      <c r="AD61" s="101"/>
+      <c r="AE61" s="105"/>
+      <c r="AF61" s="100"/>
+      <c r="AG61" s="101"/>
+      <c r="AH61" s="105"/>
+      <c r="AI61" s="100"/>
+      <c r="AJ61" s="101"/>
+      <c r="AK61" s="105"/>
+      <c r="AL61" s="100"/>
+      <c r="AM61" s="101"/>
+      <c r="AN61" s="99"/>
+      <c r="AO61" s="100"/>
+      <c r="AP61" s="101"/>
+      <c r="AQ61" s="99"/>
+      <c r="AR61" s="100"/>
+      <c r="AS61" s="101"/>
+      <c r="AT61" s="99"/>
+      <c r="AU61" s="100"/>
+      <c r="AV61" s="101"/>
+    </row>
+    <row r="62" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="129"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="123">
+        <v>2006</v>
+      </c>
+      <c r="G62" s="91"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="101"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="105"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="101"/>
+      <c r="S62" s="105"/>
+      <c r="T62" s="100"/>
+      <c r="U62" s="101"/>
+      <c r="V62" s="105"/>
+      <c r="W62" s="100"/>
+      <c r="X62" s="101"/>
+      <c r="Y62" s="105"/>
+      <c r="Z62" s="100"/>
+      <c r="AA62" s="101"/>
+      <c r="AB62" s="105"/>
+      <c r="AC62" s="100"/>
+      <c r="AD62" s="101"/>
+      <c r="AE62" s="105"/>
+      <c r="AF62" s="100"/>
+      <c r="AG62" s="101"/>
+      <c r="AH62" s="105"/>
+      <c r="AI62" s="100"/>
+      <c r="AJ62" s="101"/>
+      <c r="AK62" s="105"/>
+      <c r="AL62" s="100"/>
+      <c r="AM62" s="101"/>
+      <c r="AN62" s="99"/>
+      <c r="AO62" s="100"/>
+      <c r="AP62" s="101"/>
+      <c r="AQ62" s="99"/>
+      <c r="AR62" s="100"/>
+      <c r="AS62" s="101"/>
+      <c r="AT62" s="99"/>
+      <c r="AU62" s="100"/>
+      <c r="AV62" s="101"/>
+    </row>
+    <row r="63" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="128"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="123">
+        <v>2010</v>
+      </c>
+      <c r="G63" s="91"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="105"/>
+      <c r="N63" s="100"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="105"/>
+      <c r="Q63" s="100"/>
+      <c r="R63" s="101"/>
+      <c r="S63" s="105"/>
+      <c r="T63" s="100"/>
+      <c r="U63" s="101"/>
+      <c r="V63" s="105"/>
+      <c r="W63" s="100"/>
+      <c r="X63" s="101"/>
+      <c r="Y63" s="105"/>
+      <c r="Z63" s="100"/>
+      <c r="AA63" s="101"/>
+      <c r="AB63" s="105"/>
+      <c r="AC63" s="100"/>
+      <c r="AD63" s="101"/>
+      <c r="AE63" s="105"/>
+      <c r="AF63" s="100"/>
+      <c r="AG63" s="101"/>
+      <c r="AH63" s="105"/>
+      <c r="AI63" s="100"/>
+      <c r="AJ63" s="101"/>
+      <c r="AK63" s="105"/>
+      <c r="AL63" s="100"/>
+      <c r="AM63" s="101"/>
+      <c r="AN63" s="99"/>
+      <c r="AO63" s="100"/>
+      <c r="AP63" s="101"/>
+      <c r="AQ63" s="99"/>
+      <c r="AR63" s="100"/>
+      <c r="AS63" s="101"/>
+      <c r="AT63" s="99"/>
+      <c r="AU63" s="100"/>
+      <c r="AV63" s="101"/>
+    </row>
+    <row r="64" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="128"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="123">
+        <v>2011</v>
+      </c>
+      <c r="G64" s="91"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="105"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="105"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="101"/>
+      <c r="P64" s="105"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="101"/>
+      <c r="S64" s="105"/>
+      <c r="T64" s="100"/>
+      <c r="U64" s="101"/>
+      <c r="V64" s="105"/>
+      <c r="W64" s="100"/>
+      <c r="X64" s="101"/>
+      <c r="Y64" s="105"/>
+      <c r="Z64" s="100"/>
+      <c r="AA64" s="101"/>
+      <c r="AB64" s="105"/>
+      <c r="AC64" s="100"/>
+      <c r="AD64" s="101"/>
+      <c r="AE64" s="105"/>
+      <c r="AF64" s="100"/>
+      <c r="AG64" s="101"/>
+      <c r="AH64" s="105"/>
+      <c r="AI64" s="100"/>
+      <c r="AJ64" s="101"/>
+      <c r="AK64" s="105"/>
+      <c r="AL64" s="100"/>
+      <c r="AM64" s="101"/>
+      <c r="AN64" s="99"/>
+      <c r="AO64" s="100"/>
+      <c r="AP64" s="101"/>
+      <c r="AQ64" s="99"/>
+      <c r="AR64" s="100"/>
+      <c r="AS64" s="101"/>
+      <c r="AT64" s="99"/>
+      <c r="AU64" s="100"/>
+      <c r="AV64" s="101"/>
+    </row>
+    <row r="65" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="128"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="123">
+        <v>2011</v>
+      </c>
+      <c r="G65" s="91"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="100"/>
+      <c r="L65" s="101"/>
+      <c r="M65" s="105"/>
+      <c r="N65" s="100"/>
+      <c r="O65" s="101"/>
+      <c r="P65" s="105"/>
+      <c r="Q65" s="100"/>
+      <c r="R65" s="101"/>
+      <c r="S65" s="105"/>
+      <c r="T65" s="100"/>
+      <c r="U65" s="101"/>
+      <c r="V65" s="105"/>
+      <c r="W65" s="100"/>
+      <c r="X65" s="101"/>
+      <c r="Y65" s="105"/>
+      <c r="Z65" s="100"/>
+      <c r="AA65" s="101"/>
+      <c r="AB65" s="105"/>
+      <c r="AC65" s="100"/>
+      <c r="AD65" s="101"/>
+      <c r="AE65" s="105"/>
+      <c r="AF65" s="100"/>
+      <c r="AG65" s="101"/>
+      <c r="AH65" s="105"/>
+      <c r="AI65" s="100"/>
+      <c r="AJ65" s="101"/>
+      <c r="AK65" s="105"/>
+      <c r="AL65" s="100"/>
+      <c r="AM65" s="101"/>
+      <c r="AN65" s="99"/>
+      <c r="AO65" s="100"/>
+      <c r="AP65" s="101"/>
+      <c r="AQ65" s="99"/>
+      <c r="AR65" s="100"/>
+      <c r="AS65" s="101"/>
+      <c r="AT65" s="99"/>
+      <c r="AU65" s="100"/>
+      <c r="AV65" s="101"/>
+    </row>
+    <row r="66" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="129"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="123">
+        <v>2007</v>
+      </c>
+      <c r="G66" s="91"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="105"/>
+      <c r="K66" s="100"/>
+      <c r="L66" s="101"/>
+      <c r="M66" s="105"/>
+      <c r="N66" s="100"/>
+      <c r="O66" s="101"/>
+      <c r="P66" s="105"/>
+      <c r="Q66" s="100"/>
+      <c r="R66" s="101"/>
+      <c r="S66" s="105"/>
+      <c r="T66" s="100"/>
+      <c r="U66" s="101"/>
+      <c r="V66" s="105"/>
+      <c r="W66" s="100"/>
+      <c r="X66" s="101"/>
+      <c r="Y66" s="105"/>
+      <c r="Z66" s="100"/>
+      <c r="AA66" s="101"/>
+      <c r="AB66" s="105"/>
+      <c r="AC66" s="100"/>
+      <c r="AD66" s="101"/>
+      <c r="AE66" s="105"/>
+      <c r="AF66" s="100"/>
+      <c r="AG66" s="101"/>
+      <c r="AH66" s="105"/>
+      <c r="AI66" s="100"/>
+      <c r="AJ66" s="101"/>
+      <c r="AK66" s="105"/>
+      <c r="AL66" s="100"/>
+      <c r="AM66" s="101"/>
+      <c r="AN66" s="99"/>
+      <c r="AO66" s="100"/>
+      <c r="AP66" s="101"/>
+      <c r="AQ66" s="99"/>
+      <c r="AR66" s="100"/>
+      <c r="AS66" s="101"/>
+      <c r="AT66" s="99"/>
+      <c r="AU66" s="100"/>
+      <c r="AV66" s="101"/>
+    </row>
+    <row r="67" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="128"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="E67" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="F67" s="123">
+        <v>2012</v>
+      </c>
+      <c r="G67" s="91"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="101"/>
+      <c r="M67" s="105"/>
+      <c r="N67" s="100"/>
+      <c r="O67" s="101"/>
+      <c r="P67" s="105"/>
+      <c r="Q67" s="100"/>
+      <c r="R67" s="101"/>
+      <c r="S67" s="105"/>
+      <c r="T67" s="100"/>
+      <c r="U67" s="101"/>
+      <c r="V67" s="105"/>
+      <c r="W67" s="100"/>
+      <c r="X67" s="101"/>
+      <c r="Y67" s="105"/>
+      <c r="Z67" s="100"/>
+      <c r="AA67" s="101"/>
+      <c r="AB67" s="105"/>
+      <c r="AC67" s="100"/>
+      <c r="AD67" s="101"/>
+      <c r="AE67" s="105"/>
+      <c r="AF67" s="100"/>
+      <c r="AG67" s="101"/>
+      <c r="AH67" s="105"/>
+      <c r="AI67" s="100"/>
+      <c r="AJ67" s="101"/>
+      <c r="AK67" s="105"/>
+      <c r="AL67" s="100"/>
+      <c r="AM67" s="101"/>
+      <c r="AN67" s="99"/>
+      <c r="AO67" s="100"/>
+      <c r="AP67" s="101"/>
+      <c r="AQ67" s="99"/>
+      <c r="AR67" s="100"/>
+      <c r="AS67" s="101"/>
+      <c r="AT67" s="99"/>
+      <c r="AU67" s="100"/>
+      <c r="AV67" s="101"/>
+    </row>
+    <row r="68" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="128"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="E68" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="F68" s="123">
+        <v>2010</v>
+      </c>
+      <c r="G68" s="91"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="105"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="105"/>
+      <c r="N68" s="100"/>
+      <c r="O68" s="101"/>
+      <c r="P68" s="105"/>
+      <c r="Q68" s="100"/>
+      <c r="R68" s="101"/>
+      <c r="S68" s="105"/>
+      <c r="T68" s="100"/>
+      <c r="U68" s="101"/>
+      <c r="V68" s="105"/>
+      <c r="W68" s="100"/>
+      <c r="X68" s="101"/>
+      <c r="Y68" s="105"/>
+      <c r="Z68" s="100"/>
+      <c r="AA68" s="101"/>
+      <c r="AB68" s="105"/>
+      <c r="AC68" s="100"/>
+      <c r="AD68" s="101"/>
+      <c r="AE68" s="105"/>
+      <c r="AF68" s="100"/>
+      <c r="AG68" s="101"/>
+      <c r="AH68" s="105"/>
+      <c r="AI68" s="100"/>
+      <c r="AJ68" s="101"/>
+      <c r="AK68" s="105"/>
+      <c r="AL68" s="100"/>
+      <c r="AM68" s="101"/>
+      <c r="AN68" s="99"/>
+      <c r="AO68" s="100"/>
+      <c r="AP68" s="101"/>
+      <c r="AQ68" s="99"/>
+      <c r="AR68" s="100"/>
+      <c r="AS68" s="101"/>
+      <c r="AT68" s="99"/>
+      <c r="AU68" s="100"/>
+      <c r="AV68" s="101"/>
+    </row>
+    <row r="69" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="128"/>
+      <c r="C69" s="135" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" s="122" t="s">
+        <v>287</v>
+      </c>
+      <c r="E69" s="122" t="s">
+        <v>288</v>
+      </c>
+      <c r="F69" s="123">
+        <v>2014</v>
+      </c>
+      <c r="G69" s="91"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="100"/>
+      <c r="L69" s="101"/>
+      <c r="M69" s="105"/>
+      <c r="N69" s="100"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="105"/>
+      <c r="Q69" s="100"/>
+      <c r="R69" s="101"/>
+      <c r="S69" s="105"/>
+      <c r="T69" s="100"/>
+      <c r="U69" s="101"/>
+      <c r="V69" s="105"/>
+      <c r="W69" s="100"/>
+      <c r="X69" s="101"/>
+      <c r="Y69" s="105"/>
+      <c r="Z69" s="100"/>
+      <c r="AA69" s="101"/>
+      <c r="AB69" s="105"/>
+      <c r="AC69" s="100"/>
+      <c r="AD69" s="101"/>
+      <c r="AE69" s="105"/>
+      <c r="AF69" s="100"/>
+      <c r="AG69" s="101"/>
+      <c r="AH69" s="105"/>
+      <c r="AI69" s="100"/>
+      <c r="AJ69" s="101"/>
+      <c r="AK69" s="105"/>
+      <c r="AL69" s="100"/>
+      <c r="AM69" s="101"/>
+      <c r="AN69" s="99"/>
+      <c r="AO69" s="100"/>
+      <c r="AP69" s="101"/>
+      <c r="AQ69" s="99"/>
+      <c r="AR69" s="100"/>
+      <c r="AS69" s="101"/>
+      <c r="AT69" s="99"/>
+      <c r="AU69" s="100"/>
+      <c r="AV69" s="101"/>
+    </row>
+    <row r="70" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="128"/>
+      <c r="C70" s="135"/>
+      <c r="D70" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="123">
+        <v>2012</v>
+      </c>
+      <c r="G70" s="91"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="93"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="101"/>
+      <c r="M70" s="105"/>
+      <c r="N70" s="100"/>
+      <c r="O70" s="101"/>
+      <c r="P70" s="105"/>
+      <c r="Q70" s="100"/>
+      <c r="R70" s="101"/>
+      <c r="S70" s="105"/>
+      <c r="T70" s="100"/>
+      <c r="U70" s="101"/>
+      <c r="V70" s="105"/>
+      <c r="W70" s="100"/>
+      <c r="X70" s="101"/>
+      <c r="Y70" s="105"/>
+      <c r="Z70" s="100"/>
+      <c r="AA70" s="101"/>
+      <c r="AB70" s="105"/>
+      <c r="AC70" s="100"/>
+      <c r="AD70" s="101"/>
+      <c r="AE70" s="105"/>
+      <c r="AF70" s="100"/>
+      <c r="AG70" s="101"/>
+      <c r="AH70" s="105"/>
+      <c r="AI70" s="100"/>
+      <c r="AJ70" s="101"/>
+      <c r="AK70" s="105"/>
+      <c r="AL70" s="100"/>
+      <c r="AM70" s="101"/>
+      <c r="AN70" s="99"/>
+      <c r="AO70" s="100"/>
+      <c r="AP70" s="101"/>
+      <c r="AQ70" s="99"/>
+      <c r="AR70" s="100"/>
+      <c r="AS70" s="101"/>
+      <c r="AT70" s="99"/>
+      <c r="AU70" s="100"/>
+      <c r="AV70" s="101"/>
+    </row>
+    <row r="71" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="129"/>
+      <c r="C71" s="135"/>
+      <c r="D71" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="123">
+        <v>2012</v>
+      </c>
+      <c r="G71" s="91"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="93"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="101"/>
+      <c r="M71" s="105"/>
+      <c r="N71" s="100"/>
+      <c r="O71" s="101"/>
+      <c r="P71" s="105"/>
+      <c r="Q71" s="100"/>
+      <c r="R71" s="101"/>
+      <c r="S71" s="105"/>
+      <c r="T71" s="100"/>
+      <c r="U71" s="101"/>
+      <c r="V71" s="105"/>
+      <c r="W71" s="100"/>
+      <c r="X71" s="101"/>
+      <c r="Y71" s="105"/>
+      <c r="Z71" s="100"/>
+      <c r="AA71" s="101"/>
+      <c r="AB71" s="105"/>
+      <c r="AC71" s="100"/>
+      <c r="AD71" s="101"/>
+      <c r="AE71" s="105"/>
+      <c r="AF71" s="100"/>
+      <c r="AG71" s="101"/>
+      <c r="AH71" s="105"/>
+      <c r="AI71" s="100"/>
+      <c r="AJ71" s="101"/>
+      <c r="AK71" s="105"/>
+      <c r="AL71" s="100"/>
+      <c r="AM71" s="101"/>
+      <c r="AN71" s="99"/>
+      <c r="AO71" s="100"/>
+      <c r="AP71" s="101"/>
+      <c r="AQ71" s="99"/>
+      <c r="AR71" s="100"/>
+      <c r="AS71" s="101"/>
+      <c r="AT71" s="99"/>
+      <c r="AU71" s="100"/>
+      <c r="AV71" s="101"/>
+    </row>
+    <row r="72" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="128"/>
+      <c r="C72" s="135"/>
+      <c r="D72" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="123">
+        <v>2006</v>
+      </c>
+      <c r="G72" s="91"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="93"/>
+      <c r="J72" s="105"/>
+      <c r="K72" s="100"/>
+      <c r="L72" s="101"/>
+      <c r="M72" s="105"/>
+      <c r="N72" s="100"/>
+      <c r="O72" s="101"/>
+      <c r="P72" s="105"/>
+      <c r="Q72" s="100"/>
+      <c r="R72" s="101"/>
+      <c r="S72" s="105"/>
+      <c r="T72" s="100"/>
+      <c r="U72" s="101"/>
+      <c r="V72" s="105"/>
+      <c r="W72" s="100"/>
+      <c r="X72" s="101"/>
+      <c r="Y72" s="105"/>
+      <c r="Z72" s="100"/>
+      <c r="AA72" s="101"/>
+      <c r="AB72" s="105"/>
+      <c r="AC72" s="100"/>
+      <c r="AD72" s="101"/>
+      <c r="AE72" s="105"/>
+      <c r="AF72" s="100"/>
+      <c r="AG72" s="101"/>
+      <c r="AH72" s="105"/>
+      <c r="AI72" s="100"/>
+      <c r="AJ72" s="101"/>
+      <c r="AK72" s="105"/>
+      <c r="AL72" s="100"/>
+      <c r="AM72" s="101"/>
+      <c r="AN72" s="99"/>
+      <c r="AO72" s="100"/>
+      <c r="AP72" s="101"/>
+      <c r="AQ72" s="99"/>
+      <c r="AR72" s="100"/>
+      <c r="AS72" s="101"/>
+      <c r="AT72" s="99"/>
+      <c r="AU72" s="100"/>
+      <c r="AV72" s="101"/>
+    </row>
+    <row r="73" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="129"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" s="123">
+        <v>2007</v>
+      </c>
+      <c r="G73" s="91"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="93"/>
+      <c r="J73" s="105"/>
+      <c r="K73" s="100"/>
+      <c r="L73" s="101"/>
+      <c r="M73" s="105"/>
+      <c r="N73" s="100"/>
+      <c r="O73" s="101"/>
+      <c r="P73" s="105"/>
+      <c r="Q73" s="100"/>
+      <c r="R73" s="101"/>
+      <c r="S73" s="105"/>
+      <c r="T73" s="100"/>
+      <c r="U73" s="101"/>
+      <c r="V73" s="105"/>
+      <c r="W73" s="100"/>
+      <c r="X73" s="101"/>
+      <c r="Y73" s="105"/>
+      <c r="Z73" s="100"/>
+      <c r="AA73" s="101"/>
+      <c r="AB73" s="105"/>
+      <c r="AC73" s="100"/>
+      <c r="AD73" s="101"/>
+      <c r="AE73" s="105"/>
+      <c r="AF73" s="100"/>
+      <c r="AG73" s="101"/>
+      <c r="AH73" s="105"/>
+      <c r="AI73" s="100"/>
+      <c r="AJ73" s="101"/>
+      <c r="AK73" s="105"/>
+      <c r="AL73" s="100"/>
+      <c r="AM73" s="101"/>
+      <c r="AN73" s="99"/>
+      <c r="AO73" s="100"/>
+      <c r="AP73" s="101"/>
+      <c r="AQ73" s="99"/>
+      <c r="AR73" s="100"/>
+      <c r="AS73" s="101"/>
+      <c r="AT73" s="99"/>
+      <c r="AU73" s="100"/>
+      <c r="AV73" s="101"/>
+    </row>
+    <row r="74" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="128"/>
+      <c r="C74" s="135"/>
+      <c r="D74" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" s="123">
+        <v>2016</v>
+      </c>
+      <c r="G74" s="91"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="93"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="100"/>
+      <c r="L74" s="101"/>
+      <c r="M74" s="105"/>
+      <c r="N74" s="100"/>
+      <c r="O74" s="101"/>
+      <c r="P74" s="105"/>
+      <c r="Q74" s="100"/>
+      <c r="R74" s="101"/>
+      <c r="S74" s="105"/>
+      <c r="T74" s="100"/>
+      <c r="U74" s="101"/>
+      <c r="V74" s="105"/>
+      <c r="W74" s="100"/>
+      <c r="X74" s="101"/>
+      <c r="Y74" s="105"/>
+      <c r="Z74" s="100"/>
+      <c r="AA74" s="101"/>
+      <c r="AB74" s="105"/>
+      <c r="AC74" s="100"/>
+      <c r="AD74" s="101"/>
+      <c r="AE74" s="105"/>
+      <c r="AF74" s="100"/>
+      <c r="AG74" s="101"/>
+      <c r="AH74" s="105"/>
+      <c r="AI74" s="100"/>
+      <c r="AJ74" s="101"/>
+      <c r="AK74" s="105"/>
+      <c r="AL74" s="100"/>
+      <c r="AM74" s="101"/>
+      <c r="AN74" s="99"/>
+      <c r="AO74" s="100"/>
+      <c r="AP74" s="101"/>
+      <c r="AQ74" s="99"/>
+      <c r="AR74" s="100"/>
+      <c r="AS74" s="101"/>
+      <c r="AT74" s="99"/>
+      <c r="AU74" s="100"/>
+      <c r="AV74" s="101"/>
+    </row>
+    <row r="75" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="128"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="122" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="123">
+        <v>2014</v>
+      </c>
+      <c r="G75" s="91"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="93"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="100"/>
+      <c r="L75" s="101"/>
+      <c r="M75" s="105"/>
+      <c r="N75" s="100"/>
+      <c r="O75" s="101"/>
+      <c r="P75" s="105"/>
+      <c r="Q75" s="100"/>
+      <c r="R75" s="101"/>
+      <c r="S75" s="105"/>
+      <c r="T75" s="100"/>
+      <c r="U75" s="101"/>
+      <c r="V75" s="105"/>
+      <c r="W75" s="100"/>
+      <c r="X75" s="101"/>
+      <c r="Y75" s="105"/>
+      <c r="Z75" s="100"/>
+      <c r="AA75" s="101"/>
+      <c r="AB75" s="105"/>
+      <c r="AC75" s="100"/>
+      <c r="AD75" s="101"/>
+      <c r="AE75" s="105"/>
+      <c r="AF75" s="100"/>
+      <c r="AG75" s="101"/>
+      <c r="AH75" s="105"/>
+      <c r="AI75" s="100"/>
+      <c r="AJ75" s="101"/>
+      <c r="AK75" s="105"/>
+      <c r="AL75" s="100"/>
+      <c r="AM75" s="101"/>
+      <c r="AN75" s="99"/>
+      <c r="AO75" s="100"/>
+      <c r="AP75" s="101"/>
+      <c r="AQ75" s="99"/>
+      <c r="AR75" s="100"/>
+      <c r="AS75" s="101"/>
+      <c r="AT75" s="99"/>
+      <c r="AU75" s="100"/>
+      <c r="AV75" s="101"/>
+    </row>
+    <row r="76" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="128"/>
+      <c r="C76" s="135"/>
+      <c r="D76" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="123">
+        <v>2011</v>
+      </c>
+      <c r="G76" s="91"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="93"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="101"/>
+      <c r="M76" s="105"/>
+      <c r="N76" s="100"/>
+      <c r="O76" s="101"/>
+      <c r="P76" s="105"/>
+      <c r="Q76" s="100"/>
+      <c r="R76" s="101"/>
+      <c r="S76" s="105"/>
+      <c r="T76" s="100"/>
+      <c r="U76" s="101"/>
+      <c r="V76" s="105"/>
+      <c r="W76" s="100"/>
+      <c r="X76" s="101"/>
+      <c r="Y76" s="105"/>
+      <c r="Z76" s="100"/>
+      <c r="AA76" s="101"/>
+      <c r="AB76" s="105"/>
+      <c r="AC76" s="100"/>
+      <c r="AD76" s="101"/>
+      <c r="AE76" s="105"/>
+      <c r="AF76" s="100"/>
+      <c r="AG76" s="101"/>
+      <c r="AH76" s="105"/>
+      <c r="AI76" s="100"/>
+      <c r="AJ76" s="101"/>
+      <c r="AK76" s="105"/>
+      <c r="AL76" s="100"/>
+      <c r="AM76" s="101"/>
+      <c r="AN76" s="99"/>
+      <c r="AO76" s="100"/>
+      <c r="AP76" s="101"/>
+      <c r="AQ76" s="99"/>
+      <c r="AR76" s="100"/>
+      <c r="AS76" s="101"/>
+      <c r="AT76" s="99"/>
+      <c r="AU76" s="100"/>
+      <c r="AV76" s="101"/>
+    </row>
+    <row r="77" spans="2:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="130"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="119">
+        <v>2014</v>
+      </c>
+      <c r="G77" s="94"/>
+      <c r="H77" s="95"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="106"/>
+      <c r="K77" s="103"/>
+      <c r="L77" s="104"/>
+      <c r="M77" s="106"/>
+      <c r="N77" s="103"/>
+      <c r="O77" s="104"/>
+      <c r="P77" s="106"/>
+      <c r="Q77" s="103"/>
+      <c r="R77" s="104"/>
+      <c r="S77" s="106"/>
+      <c r="T77" s="103"/>
+      <c r="U77" s="104"/>
+      <c r="V77" s="106"/>
+      <c r="W77" s="103"/>
+      <c r="X77" s="104"/>
+      <c r="Y77" s="106"/>
+      <c r="Z77" s="103"/>
+      <c r="AA77" s="104"/>
+      <c r="AB77" s="106"/>
+      <c r="AC77" s="103"/>
+      <c r="AD77" s="104"/>
+      <c r="AE77" s="106"/>
+      <c r="AF77" s="103"/>
+      <c r="AG77" s="104"/>
+      <c r="AH77" s="106"/>
+      <c r="AI77" s="103"/>
+      <c r="AJ77" s="104"/>
+      <c r="AK77" s="106"/>
+      <c r="AL77" s="103"/>
+      <c r="AM77" s="104"/>
+      <c r="AN77" s="102"/>
+      <c r="AO77" s="103"/>
+      <c r="AP77" s="104"/>
+      <c r="AQ77" s="102"/>
+      <c r="AR77" s="103"/>
+      <c r="AS77" s="104"/>
+      <c r="AT77" s="102"/>
+      <c r="AU77" s="103"/>
+      <c r="AV77" s="104"/>
+    </row>
+    <row r="78" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G78" s="248" t="s">
+        <v>128</v>
+      </c>
+      <c r="H78" s="250" t="s">
+        <v>129</v>
+      </c>
+      <c r="I78" s="252" t="s">
+        <v>130</v>
+      </c>
+      <c r="J78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="K78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="L78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="M78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="N78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="O78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="P78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="R78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="S78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="T78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="U78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="V78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="W78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="X78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK78" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN78" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ78" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS78" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT78" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="AV78" s="115" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G79" s="248"/>
+      <c r="H79" s="250"/>
+      <c r="I79" s="252"/>
+      <c r="J79" s="237" t="s">
+        <v>297</v>
+      </c>
+      <c r="K79" s="238"/>
+      <c r="L79" s="239"/>
+      <c r="M79" s="237" t="s">
+        <v>298</v>
+      </c>
+      <c r="N79" s="238"/>
+      <c r="O79" s="239"/>
+      <c r="P79" s="237" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q79" s="238"/>
+      <c r="R79" s="239"/>
+      <c r="S79" s="237" t="s">
+        <v>302</v>
+      </c>
+      <c r="T79" s="238"/>
+      <c r="U79" s="239"/>
+      <c r="V79" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="W79" s="238"/>
+      <c r="X79" s="239"/>
+      <c r="Y79" s="237" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z79" s="238"/>
+      <c r="AA79" s="239"/>
+      <c r="AB79" s="237" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC79" s="238"/>
+      <c r="AD79" s="239"/>
+      <c r="AE79" s="237" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF79" s="238"/>
+      <c r="AG79" s="239"/>
+      <c r="AH79" s="237" t="s">
+        <v>314</v>
+      </c>
+      <c r="AI79" s="238"/>
+      <c r="AJ79" s="239"/>
+      <c r="AK79" s="237" t="s">
+        <v>315</v>
+      </c>
+      <c r="AL79" s="238"/>
+      <c r="AM79" s="239"/>
+      <c r="AN79" s="243" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO79" s="238"/>
+      <c r="AP79" s="239"/>
+      <c r="AQ79" s="243" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR79" s="238"/>
+      <c r="AS79" s="239"/>
+      <c r="AT79" s="243" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU79" s="238"/>
+      <c r="AV79" s="239"/>
+    </row>
+    <row r="80" spans="2:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G80" s="248"/>
+      <c r="H80" s="250"/>
+      <c r="I80" s="252"/>
+      <c r="J80" s="240"/>
+      <c r="K80" s="241"/>
+      <c r="L80" s="242"/>
+      <c r="M80" s="240"/>
+      <c r="N80" s="241"/>
+      <c r="O80" s="242"/>
+      <c r="P80" s="240"/>
+      <c r="Q80" s="241"/>
+      <c r="R80" s="242"/>
+      <c r="S80" s="240"/>
+      <c r="T80" s="241"/>
+      <c r="U80" s="242"/>
+      <c r="V80" s="240"/>
+      <c r="W80" s="241"/>
+      <c r="X80" s="242"/>
+      <c r="Y80" s="240"/>
+      <c r="Z80" s="241"/>
+      <c r="AA80" s="242"/>
+      <c r="AB80" s="240"/>
+      <c r="AC80" s="241"/>
+      <c r="AD80" s="242"/>
+      <c r="AE80" s="240"/>
+      <c r="AF80" s="241"/>
+      <c r="AG80" s="242"/>
+      <c r="AH80" s="240"/>
+      <c r="AI80" s="241"/>
+      <c r="AJ80" s="242"/>
+      <c r="AK80" s="240"/>
+      <c r="AL80" s="241"/>
+      <c r="AM80" s="242"/>
+      <c r="AN80" s="244"/>
+      <c r="AO80" s="241"/>
+      <c r="AP80" s="242"/>
+      <c r="AQ80" s="244"/>
+      <c r="AR80" s="241"/>
+      <c r="AS80" s="242"/>
+      <c r="AT80" s="244"/>
+      <c r="AU80" s="241"/>
+      <c r="AV80" s="242"/>
+    </row>
+    <row r="81" spans="7:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G81" s="248"/>
+      <c r="H81" s="250"/>
+      <c r="I81" s="252"/>
+      <c r="J81" s="240"/>
+      <c r="K81" s="241"/>
+      <c r="L81" s="242"/>
+      <c r="M81" s="240"/>
+      <c r="N81" s="241"/>
+      <c r="O81" s="242"/>
+      <c r="P81" s="240"/>
+      <c r="Q81" s="241"/>
+      <c r="R81" s="242"/>
+      <c r="S81" s="240"/>
+      <c r="T81" s="241"/>
+      <c r="U81" s="242"/>
+      <c r="V81" s="240"/>
+      <c r="W81" s="241"/>
+      <c r="X81" s="242"/>
+      <c r="Y81" s="240"/>
+      <c r="Z81" s="241"/>
+      <c r="AA81" s="242"/>
+      <c r="AB81" s="240"/>
+      <c r="AC81" s="241"/>
+      <c r="AD81" s="242"/>
+      <c r="AE81" s="240"/>
+      <c r="AF81" s="241"/>
+      <c r="AG81" s="242"/>
+      <c r="AH81" s="240"/>
+      <c r="AI81" s="241"/>
+      <c r="AJ81" s="242"/>
+      <c r="AK81" s="240"/>
+      <c r="AL81" s="241"/>
+      <c r="AM81" s="242"/>
+      <c r="AN81" s="244"/>
+      <c r="AO81" s="241"/>
+      <c r="AP81" s="242"/>
+      <c r="AQ81" s="244"/>
+      <c r="AR81" s="241"/>
+      <c r="AS81" s="242"/>
+      <c r="AT81" s="244"/>
+      <c r="AU81" s="241"/>
+      <c r="AV81" s="242"/>
+    </row>
+    <row r="82" spans="7:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="248"/>
+      <c r="H82" s="250"/>
+      <c r="I82" s="252"/>
+      <c r="J82" s="240"/>
+      <c r="K82" s="241"/>
+      <c r="L82" s="242"/>
+      <c r="M82" s="240"/>
+      <c r="N82" s="241"/>
+      <c r="O82" s="242"/>
+      <c r="P82" s="240"/>
+      <c r="Q82" s="241"/>
+      <c r="R82" s="242"/>
+      <c r="S82" s="240"/>
+      <c r="T82" s="241"/>
+      <c r="U82" s="242"/>
+      <c r="V82" s="240"/>
+      <c r="W82" s="241"/>
+      <c r="X82" s="242"/>
+      <c r="Y82" s="240"/>
+      <c r="Z82" s="241"/>
+      <c r="AA82" s="242"/>
+      <c r="AB82" s="240"/>
+      <c r="AC82" s="241"/>
+      <c r="AD82" s="242"/>
+      <c r="AE82" s="240"/>
+      <c r="AF82" s="241"/>
+      <c r="AG82" s="242"/>
+      <c r="AH82" s="240"/>
+      <c r="AI82" s="241"/>
+      <c r="AJ82" s="242"/>
+      <c r="AK82" s="240"/>
+      <c r="AL82" s="241"/>
+      <c r="AM82" s="242"/>
+      <c r="AN82" s="244"/>
+      <c r="AO82" s="241"/>
+      <c r="AP82" s="242"/>
+      <c r="AQ82" s="244"/>
+      <c r="AR82" s="241"/>
+      <c r="AS82" s="242"/>
+      <c r="AT82" s="244"/>
+      <c r="AU82" s="241"/>
+      <c r="AV82" s="242"/>
+    </row>
+    <row r="83" spans="7:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="249"/>
+      <c r="H83" s="251"/>
+      <c r="I83" s="253"/>
+      <c r="J83" s="240"/>
+      <c r="K83" s="241"/>
+      <c r="L83" s="242"/>
+      <c r="M83" s="240"/>
+      <c r="N83" s="241"/>
+      <c r="O83" s="242"/>
+      <c r="P83" s="240"/>
+      <c r="Q83" s="241"/>
+      <c r="R83" s="242"/>
+      <c r="S83" s="240"/>
+      <c r="T83" s="241"/>
+      <c r="U83" s="242"/>
+      <c r="V83" s="240"/>
+      <c r="W83" s="241"/>
+      <c r="X83" s="242"/>
+      <c r="Y83" s="240"/>
+      <c r="Z83" s="241"/>
+      <c r="AA83" s="242"/>
+      <c r="AB83" s="240"/>
+      <c r="AC83" s="241"/>
+      <c r="AD83" s="242"/>
+      <c r="AE83" s="240"/>
+      <c r="AF83" s="241"/>
+      <c r="AG83" s="242"/>
+      <c r="AH83" s="240"/>
+      <c r="AI83" s="241"/>
+      <c r="AJ83" s="242"/>
+      <c r="AK83" s="240"/>
+      <c r="AL83" s="241"/>
+      <c r="AM83" s="242"/>
+      <c r="AN83" s="245"/>
+      <c r="AO83" s="246"/>
+      <c r="AP83" s="247"/>
+      <c r="AQ83" s="245"/>
+      <c r="AR83" s="246"/>
+      <c r="AS83" s="247"/>
+      <c r="AT83" s="245"/>
+      <c r="AU83" s="246"/>
+      <c r="AV83" s="247"/>
+    </row>
+    <row r="84" spans="7:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="231" t="s">
+        <v>131</v>
+      </c>
+      <c r="H84" s="232"/>
+      <c r="I84" s="233"/>
+      <c r="J84" s="234" t="s">
+        <v>132</v>
+      </c>
+      <c r="K84" s="235"/>
+      <c r="L84" s="235"/>
+      <c r="M84" s="235"/>
+      <c r="N84" s="235"/>
+      <c r="O84" s="235"/>
+      <c r="P84" s="235"/>
+      <c r="Q84" s="235"/>
+      <c r="R84" s="235"/>
+      <c r="S84" s="235"/>
+      <c r="T84" s="235"/>
+      <c r="U84" s="235"/>
+      <c r="V84" s="235"/>
+      <c r="W84" s="235"/>
+      <c r="X84" s="235"/>
+      <c r="Y84" s="235"/>
+      <c r="Z84" s="235"/>
+      <c r="AA84" s="235"/>
+      <c r="AB84" s="235"/>
+      <c r="AC84" s="235"/>
+      <c r="AD84" s="235"/>
+      <c r="AE84" s="235"/>
+      <c r="AF84" s="235"/>
+      <c r="AG84" s="235"/>
+      <c r="AH84" s="235"/>
+      <c r="AI84" s="235"/>
+      <c r="AJ84" s="235"/>
+      <c r="AK84" s="235"/>
+      <c r="AL84" s="235"/>
+      <c r="AM84" s="235"/>
+      <c r="AN84" s="235"/>
+      <c r="AO84" s="235"/>
+      <c r="AP84" s="235"/>
+      <c r="AQ84" s="235"/>
+      <c r="AR84" s="235"/>
+      <c r="AS84" s="236"/>
+      <c r="AT84"/>
+      <c r="AU84"/>
+      <c r="AV84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="AN10:AP14"/>
+    <mergeCell ref="AN79:AP83"/>
+    <mergeCell ref="AT10:AV14"/>
+    <mergeCell ref="AT79:AV83"/>
+    <mergeCell ref="J9:AV9"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="Y10:AA14"/>
+    <mergeCell ref="AK10:AM14"/>
+    <mergeCell ref="J10:L14"/>
+    <mergeCell ref="M10:O14"/>
+    <mergeCell ref="P10:R14"/>
+    <mergeCell ref="S10:U14"/>
+    <mergeCell ref="V10:X14"/>
+    <mergeCell ref="AQ10:AS14"/>
+    <mergeCell ref="AB10:AD14"/>
+    <mergeCell ref="AE10:AG14"/>
+    <mergeCell ref="AH10:AJ14"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="J84:AS84"/>
+    <mergeCell ref="AB79:AD83"/>
+    <mergeCell ref="AE79:AG83"/>
+    <mergeCell ref="AH79:AJ83"/>
+    <mergeCell ref="AK79:AM83"/>
+    <mergeCell ref="AQ79:AS83"/>
+    <mergeCell ref="G78:G83"/>
+    <mergeCell ref="H78:H83"/>
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="J79:L83"/>
+    <mergeCell ref="M79:O83"/>
+    <mergeCell ref="P79:R83"/>
+    <mergeCell ref="S79:U83"/>
+    <mergeCell ref="V79:X83"/>
+    <mergeCell ref="Y79:AA83"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:D6"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -7595,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="96" x14ac:dyDescent="0.2">
@@ -7603,7 +13410,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7611,15 +13418,39 @@
         <v>3</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>295</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
